--- a/output/Total_time_range_data/西藏自治区/林芝市_学习考察.xlsx
+++ b/output/Total_time_range_data/西藏自治区/林芝市_学习考察.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,894 +436,980 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>code</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>province</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>city</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>topic</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>date</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>content</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>西藏省</t>
-        </is>
+      <c r="A2" t="n">
+        <v>262</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>林芝市</t>
+          <t>西藏省</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>林芝市</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
           <t>年西藏自治区科协系统干部业务能力提升培训班在重庆市开班</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2019-11-30</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>http://www.linzhi.gov.cn/linzhi/xwzx/201911/8f32ae12bf1340fc9c6234e618e19b4f.shtml</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>['西藏自治区科协巡视员巴琼、重庆市科协二级巡视员袁强以及重庆科技报社总编刘学兵参加开班仪式。西藏', '习近平总书记贯彻习近平总书记关于建设世界科技强国重要指示和党的十九大精神，把握新时代科协组织的发展方向与管理方式，进一步提高自治区、地市科协和自治区级学会履行“四服务”职责的能力和水平，更好地服务西藏经济社会发展', '习近平总书记贯彻习近平总书记关于建设世界科技强国重要指示和党的十九大精神，把握新时代科协组织的发展方向与管理方式，进一步提高自治区、地市科协和自治区级学会履行', '开班仪式上重庆市科协二级巡视员袁强向学员们介绍了重庆市科协和重庆科技报的简要情况。西藏科协巴琼副巡视员对学员们提出了三点要求，他要求大家一是要认真对待，充分认识此次培训的重要性；二是要珍惜机会，增强学习的自觉性；三是要严明纪律，严格要求，']</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>西藏省</t>
-        </is>
+      <c r="A3" t="n">
+        <v>262</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>林芝市</t>
+          <t>西藏省</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>林芝市</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
           <t>林芝市围绕思想解放抓培训进一步增强高质量发展工作动能</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>2024-01-18</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>http://www.linzhi.gov.cn/linzhi/xwzx/202401/97dcf2c3d076498cb9c2fef8ebdad083.shtml</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>['林芝市围绕思想解放抓培训,进一步增强高质量发展工作动能。2023年以来,围绕“11364”发展思路和建设“两地五区”总目标,紧扣推动林芝高质量发展,促进改革开放先行总要求,坚持目标导向,迅速把干部教育工作重心聚焦到市委确定的目标任务上来,为推动林芝高质量发展、促进改革开放先行提供强有力人才支撑。', '转变工作思路,精准调“训”。着眼加快推进改革开放先行区工作布局,破除传统思维,围绕“重点干部重点训、优秀干部加强训、年轻干部经常训、紧缺人才尽快训”思路,及时调训最需要培训的干部。共举办计划内培训班39期、调训干部1948人,计划外8期、调训干部400余人次;举办“推动林芝高质量发展、促进改革开放先行”专题培训班12期,组织驻村工作重点培训4期、1800余人次。', '紧贴形势任务,送出去“学”。充分发挥援藏平台作用,围绕推进乡村振兴、优化营商环境、经济高质量发展等主题,在广东、江苏等地开展高质量发展专题培训班7期,调训经济部门主官、县乡党政正职278人,持续增强领导干部抓落实、推动工作的能力。', '创新工作举措,请进来“讲”。聚焦服务市委中心工作,坚持将培训重点与中心工作相结合,立足高质量发展需要和干部能力素质短板弱项,举办“工布大讲堂”5期,邀请温铁军、陈可石等知名专家学者专题授课,轮训市管干部3400余人次,引导干部特别是领导干部强化变革意识、破除思想束缚,打造干部教育培训特色品牌。', '围绕群众实际,下基层“宣”。扎实开展进机关、进企事业单位、进乡镇、进社区、进校园、进部队、进寺庙“初心大讲堂”送教宣讲进基层活动,把高品质的党课送到基层、送到最急需的地方、送到党员教育的薄弱点,凝聚思想共识,汇聚起推动林芝经济社会发展的强大动力。累计开展“送教下乡”“送教上门”理论政策宣讲会500余场次,受教育党员干部群众2.87万余人次;开展“初心大讲堂”送教宣讲活动45场次,受教育党员干部群众4158人次。五是学用结合,到实地“察”。坚持把理论学习和考察学习结合起来,组织2批29名乡镇党政正职市内考察学习,促进交流互鉴、共同提高。']</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>西藏省</t>
-        </is>
+      <c r="A4" t="n">
+        <v>262</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>林芝市</t>
+          <t>西藏省</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
+          <t>林芝市</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
           <t>林芝市商务局组团参加第十二届加工贸易博览会展销推介商务交流系列活动</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>2020-12-22</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>http://www.linzhi.gov.cn/linzhi/xwzx/202012/c4436d85dbd44847855ccc5d90fdcaf2.shtml</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>['由商务部、国家知识产权局和广东省人民政府主办，广东省商务厅和东莞市人民政府共同承办的第十二届中国加工贸易博览会（以下简称加博会）在东莞举行。本次展会17-18日为专业观众日，19-20日为公众开放日。本届中国加博会展览面积7万平方米，共吸引了全国19个省、自治区、直辖市及港台地区的1193家企业参展。不仅展览面积、参展企业数量皆创下近年之最，还首次增设出口转内销产品展、医护设备及用品展、港资企业专区及主宾省（市）展示区。', '在市委和市政府的坚强领导下，在广东省商务厅的大力支持下，根据西藏自治区商务厅统一部署，加博会组委会为林芝提供了108平方标摊升级展区，市商务局认真组织筛选12家林芝地产产品企业布展及展销，展销林芝藏香猪、墨脱石锅、林芝藏红花、林芝雪菊、林芝玫瑰花、林芝藏香、野生藏蜂蜜、野生藏灵芝、西藏冬虫夏草等7大类80余种地产产品。在展销现场林芝藏香猪、野生藏蜂蜜、林芝玫瑰和雪菊受到了广大消费者的好评。4天展销时间，加博会期间我市展区累计接待客户4688余人次，达成现场销售额30.76万元，意向采购企业15家次，意向采购金额约65.72万元。', '在广东省商务厅和东莞市商务局大力支持下及西藏自治区商务厅的指导下，林芝经开区、拉萨经开区、地球第三极公司和林芝市商务局通力合作，12月19日，在加博会举办之际，由西藏自治区商务厅、林芝市人民政府共同举办的“西藏自治区专场招商引资推介会”在广东现代国际展览中心隆重召开。广东省商务厅副厅长陈越华同志，西藏自治区商务厅贸促会主任、二级巡视员秦浩同志，林芝市政协副主席、林芝经开区党工委副书记、主任旦增拉姆同志，拉萨经开区党工委委员、党政办主任、拉萨综合保税区筹委会副主任黄辅龙同志等领导出席活动，西藏代表团在宣传推介中充分展示了西藏独特的区位优势、良好的投资环境、丰富的特色资源以及全新的对外开放形象，通过宣传片和项目集中推介，现场还摆放了名优特产品，吸引了区内外商协会和企业代表约200人参加，业界反响超出预期。', '在加博会期间，林芝代表团先后到广东省商务厅、广东省供销合作联社拜访，争取展会支持、人才培训、产销对接等有关事宜；赴广东粤商研究会了解我局十四五规划编制情况；走访“7+2”林芝源广州馆和“7+2”林芝源东莞馆，掌握林芝产品销售情况；前往广州市汇美时尚集团股份有限公司、东莞市鑫义晋生物肥料有限公司、松山湖大热度石墨烯发热保暖衣服有限公司、松山湖华为小镇、稻香中菜国际厨艺学院、T.I.T创意园考察学习，开展经贸交流活动。', '通过加博会展销、推介会、走访考察等系列商务活动，进一步加强了粤藏交流与合作，大力宣传推介林芝投资环境和名优特产，拓宽产品销售渠道，帮助企业提升产品竞争力、扩大招商引资成果，促进林芝高水平开放高质量发展。']</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>西藏省</t>
-        </is>
+      <c r="A5" t="n">
+        <v>262</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>林芝市</t>
+          <t>西藏省</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
+          <t>林芝市</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
           <t>林芝市教育局召开学习教育暨改进作风狠抓落实年第次学习会</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>2023-07-03</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>http://www.linzhi.gov.cn/linzhi/xwzx/202307/cc7ecac8c5ef43059b3efdbd6f2098bc.shtml</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>['近日，市教育局召开学习教育暨改进作风狠抓落实2023年第16次学习会,局在家领导、局机关全体干部参加会议,局党组书记、副局长栾远翔同志主持会议并讲话。', '会上集中观看了《领航｜踔厉奋发》，开展了“学习贯彻党的二十大精神”知识答题，传达学习了相关文件精神，开展了形式主义、官僚主义的警示教育。吴卓秦同志进行了赴广东省考察学习的交流发言，阐述了粤林两地的教育差异，深刻分析了林芝教育目前存在的问题不足，提出了建设性意见。各科室负责人汇报了近期相关工作，局班子成员逐一进行了点评，并提出了具体要求。', '会议强调，教育是国之大计、党之大计，坚持教育优先发展，是我们要履行的重要职责。要把工作聚焦到教育高质量发展上来，改进教学方式方法，提升教育质量。要做好维稳安全工作，不得虚假宣传、炒作中高考成绩和升学率等问题，确保林芝市教育工作安全有序，切实维护社会稳定。', '会议要求，全体干部职工要守住各项纪律，保持自身的清正廉洁，工作中要坚持求真务实，端正思想，严格遵守廉洁自律要求。对于改进作风狠抓落实要从严从实、常态长效，不断改进工作作风，提升工作实效，提高工作水平，坚持以“钉钉子”精神抓好工作落实。要把思想认识和行动统一到局党组的部署上来，为推动林芝教育高质量发展提供坚实保障。要组织开展与全国知名高校的合作、引资引智，办好人民满意的教育。']</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>西藏省</t>
-        </is>
+      <c r="A6" t="n">
+        <v>262</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>林芝市</t>
+          <t>西藏省</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
+          <t>林芝市</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
           <t>林芝市教育局召开学习教育暨改进作风狠抓落实年第次学习会</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>2023-07-12</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>http://www.linzhi.gov.cn/linzhi/xwzx/202307/2a18be7c88e441dca2effd88704d1e9e.shtml</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>['近日，市教育局党组召开学习教育暨改进作风狠抓落实2023年第17次学习会,局在家领导、局机关全体干部参加会议，局党组书记、副局长栾远翔同志主持会议并讲话。会议上集中观看了《领航｜高效统筹 掌舵定向》，开展了“学习贯彻党的二十大精神”知识书面测试，传达学习了相关文件精神，开展了典型案例的警示教育。李露斯同志就赴广东省考察学习作交流发言，韦娜同志就综合实践基地相关业务作了讲座。', '会议要求，一要加强学习，掌握政策。教育局全体干部要加强学习，通过打造教育大讲堂、论坛，邀请专家学者来授课，学员们听课交流心得体会，熟练掌握教育各项政策，熟悉教育改革的重点、方向，引领全市教育发展。二要创新方式，入脑入心。创新工作思路，转变工作方式，要有新作为，以习近平新时代中国特色社会主义思想武装头脑，指导实践，推动工作。三要改进作风，提升效率。全市教育系统各级党组织要加强作风建设，全体党员干部要认真学习领悟习近平总书记关于加强作风建设的重要论述，做到学思践悟，创新工作方式，提高工作效率，为谱写林芝教育高质量发展新篇章提供有力支撑。']</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>西藏省</t>
-        </is>
+      <c r="A7" t="n">
+        <v>262</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>林芝市</t>
+          <t>西藏省</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
+          <t>林芝市</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
           <t>深入交流共话合作助推墨脱民生发展</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>2020-12-02</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>http://www.linzhi.gov.cn/linzhi/xwzx/202012/6a89e75e8e964ea6b6c1cad5a3de5c01.shtml</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>['为进一步深化佛墨对口支援交流，推进墨脱公共文化、体育、旅游活动发展，提升墨脱教育教学水平，创建墨脱茶叶标准化体系。2020年11月26日-29日，墨脱县委副书记、常务副县长张巍巍带领县教体局、文旅局局长及工作人员一行赴广东省佛山市、韶关市考察交流学习。', '为进一步深化佛墨对口支援交流，推进墨脱公共文化、体育、旅游活动发展，提升墨脱教育教学水平，创建墨脱茶叶标准化体系。', '考察组一行先后前往佛山市文广旅体局、市场监督管理局、教育局座谈交流，并前往韶关市第十三届农行杯韶关穿越丹霞山50公里徒步赛现场考察学习。', '考察组一行先后前往佛山市文广旅体局、市场监督管理局、教育局座谈交流，并前往韶关市第十三届农行杯韶关穿越丹霞山', '在佛山市文广旅体局座谈时，考察组就墨脱县目前在文化、旅游和体育方面的资源、短板和面临的问题进行了介绍。佛山市文广旅体局各相关科室、市文化馆、艺创院、博物院及市图书馆分别就各自工作领域为墨脱文化、体育、旅游发展提供了宝贵的工作建议和援助措施。会上还对佛山市“十四五”期间文化旅游援藏工作方案展开讨论。', '在佛山市文广旅体局座谈时，考察组就墨脱县目前在文化、旅游和体育方面的资源、短板和面临的问题进行了介绍。佛山市文广旅体局各相关科室、市文化馆、艺创院、博物院及市图书馆分别就各自工作领域为墨脱文化、体育、旅游发展提供了宝贵的工作建议和援助措施。会上还对佛山市', '基本情况和短板作了介绍，双方就如何提升墨脱县各学校教育教学和管理水平进行了深入探讨，大家一致认为选派优秀教师来墨脱实地教学、现场指导更有利于探索出符合墨脱实际的教学和管理模式，', '在佛山市市场监督管理局座谈时，双方一致认为，茶叶是墨脱县委、政府高度重视、通力打造的支柱性产业，创建墨脱茶叶标准化体系，将进一步扩大墨脱茶社会知名度，增强茶叶的质量品质、竞争实力，促进墨脱茶叶向精品名牌的方向健康发展。佛山市市场监督管理局表示将全力协助指导墨脱茶叶标准创建工作，为助推墨脱茶叶产业发展作出新贡献。', '在佛山期间，考察组一行还前往佛山市户外运动协会沟通交流墨脱开展徒步活动事宜；前往佛山市禅城区祖庙街道看望了墨脱住建局在祖庙街道', '组最后前往韶关市现场参观学习了穿越丹霞山50公里徒步赛的组织、筹办、现场布置等方面经验做法，向承办单位韶关市文化广电旅游体育局“取经”，']</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>西藏省</t>
-        </is>
+      <c r="A8" t="n">
+        <v>262</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>林芝市</t>
+          <t>西藏省</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
+          <t>林芝市</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
           <t>朗县组织党外人士赴山南市开展交往交流交融爱党爱国爱家边疆行活动</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>2023-08-03</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>http://www.linzhi.gov.cn/linzhi/xwzx/202308/629f96f1ff8d48278855533bddc4398c.shtml</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>['为进一步铸牢中华民族共同体意识，不断推进民族团结进步创建工作向更大范围、更广领域、更深层次拓展，增强爱党爱国爱家情怀。近日，朗县组织', '15名党外人士赴山南市隆子县玉麦乡、扎日乡开展“交往交流交融·爱党爱国爱家”边疆行活动。', '活动中，先后对玉麦乡乡史馆、小康村建设、桑杰曲巴旧居展览馆、民族团结进步创建工作开展情况和扎日乡白酒加工厂、高山茶叶种植基地、珞瓦村抵边搬迁、庄堆村边境小康示范村守边固边情况进行了实地观摩、亲身体验。每到一处，考察组均采取', '“观”和“闻”的方式，认真学习好的经验做法，谋求共同进步、共促发展。在桑杰曲巴旧居，认真聆听了桑杰曲巴一家放牧守边的感人事迹，参观一家人当年的生活场景，并在“家是玉麦，国是中国”的标语下合影留念', '真切感受到浓浓的爱国情怀。在扎日乡珞瓦新村了解了抵边村建设情况，听取了边境群众为守边固边奉献青春乃至生命的动人故事。', '“眼见为实 畅所欲言”座谈会。大家纷纷表示，参观考察学习活动很有必要、很有意义，不仅开拓了眼界，也真实感受到在中国共产党领导下，玉麦乡、扎日乡的翻天覆地的变化，亲眼目睹和亲身体会到兄弟县、乡在稳定、发展、生态、强边工作中取得的丰硕成果、积累的宝贵经验。', '今后将进一步增强责任心和自豪感，坚持围绕中心、服务大局，高举中华民族大团结旗帜，促进各民族在中华民族大家庭中像石榴籽一样紧紧抱在一起，手足相亲、守望相助，共建共享发展成果，奋力实现中华民族伟大复兴的中国梦，为经济社会高质量发展贡献更多的智慧和力量。', '通过开展此次活动，切实加强了党外人士的政治觉悟和思想素养，不断增强各民族干部群众交往交流交融，从而更加直观地感受到了守卫祖国边疆的爱党爱国爱家情怀，铸牢中华民族共同体意识，激发广大党外人士像格桑花一样扎根在雪域高原，争做神圣国土守护者、幸福家园建设者的热情和激情。']</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>西藏省</t>
-        </is>
+      <c r="A9" t="n">
+        <v>262</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>林芝市</t>
+          <t>西藏省</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
+          <t>林芝市</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
           <t>深圳林芝工作座谈会暨合作协议签约仪式举行</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>2024-04-02</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>http://www.linzhi.gov.cn/linzhi/xwzx/202404/37665287fc364f46ab40ebddf815bb24.shtml</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>['近日，深圳市委副书记、市长覃伟中率队赴林芝考察学习，对接对口援藏工作，并召开座谈会，深化两地各领域更紧密交流合作。', '覃伟中代表深圳市委、市政府，对林芝经济社会发展取得的成绩表示祝贺，向西藏对深圳改革开放、创新发展的大力支持表示感谢。他说，做好对口援藏工作是深圳义不容辞的政治责任，深圳将深入学习贯彻习近平总书记关于西藏工作和对口支援工作的重要指示精神，认真落实新时代党的治藏方略，按照粤藏两省区统筹安排，用心用情用力做好对口援藏各项工作，一体推进民生支援、产业支援、人才智力支援、文化教育支援，积极增进民族交往交流交融。抢抓新能源发展战略机遇，发挥深圳新能源产业、技术、资本、市场等优势，加强双方清洁能源、新型储能、数字能源等深度合作，助力林芝打造世界级清洁能源基地。共同推进建设新型能源体系和新型电力系统。持续拓展交流合作深度和广度，深化科技创新、新兴产业、文化旅游、智慧城市、农牧食品等领域密切对接协作，共同推进培育发展新质生产力，携手服务和融入新发展格局，助力林芝推动高质量发展、促进改革开放先行。', '敖刘全代表林芝市委、政府，向覃伟中一行来林考察表示欢迎，对深圳市长期以来对林芝和察隅县的无私援助表示衷心感谢。他说道，深圳是我国改革的前沿和对外开放的窗口，林芝作为西藏自治区改革开放的“先行地”，资源优势明显，发展潜力广阔，双方合作潜力巨大，随着国家重大战略的相继实施，为林芝提供了前所未有的发展机遇。当前林芝正处于推动高质量发展、促进改革开放先行的突破增效关键时期，我们诚挚希望深圳与林芝一如既往地强化交流合作，进一步加大智力援助力度，帮助林芝在建设改革开放先行区实践中规避前进道路上的风险；诚挚希望深圳有实力的企业到林芝投资兴业，与林芝一起在数字林芝建设、清洁能源开发、文化旅游资源开发等方面进行深度合作，帮助林芝把资源优势转化为新质生产力。敖刘全表示，林芝市委、市政府将不遗余力的为来林投资兴业的企业创造条件、营造环境、搭建平台，以最优的政策、最优的服务、最优的环境，实现双方互利共赢。', '在林芝市，覃伟中一行到巴宜区超充站、林芝镇嘎拉村、华侨城国际汽车营地等，实地考察了解林芝经济社会发展和对口支援项目建设运营情况，见证深圳和林芝相关项目签约，并看望慰问深圳援藏干部人才。覃伟中强调，要切实增强做好援藏工作的思想自觉、政治自觉、行动自觉，积极作为，拼搏奉献，加大力度帮助林芝、察隅巩固拓展脱贫攻坚成果，加快推进乡村振兴和农业农村现代化，培育特色优势产业，促进共同富裕，在新的起点上推动援藏工作取得更大成效。', '深圳市人民政府秘书长、办公厅主任人选卢文鹏及相关部门领导和企业负责人，广东省政府副秘书长、林芝市委副书记、常务副市长吴耿淡，林芝市委副书记罗布次仁，林芝市政府副市长赵俊、段刚辉，林芝市政协副主席、巴宜区委书记旦增拉姆及相关市直部门主要负责同志参加会议。']</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>西藏省</t>
-        </is>
+      <c r="A10" t="n">
+        <v>262</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>林芝市</t>
+          <t>西藏省</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
+          <t>林芝市</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
           <t>林芝市各级人大履行人大职能发挥代表作用</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>2023-09-18</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>http://www.linzhi.gov.cn/linzhi/xwzx/202309/ca115babc00541ad9091c33ad2d30825.shtml</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>['自中央人大工作会议召开以来,林芝市各级人大及其常委会始终坚持把学习宣传贯彻会议精神作为一项重要政治任务,深刻领悟“两个确立”的决定性意义,增强“四个意识”、坚定“四个自信”、做到“两个维护”,切实改进作风狠抓落实,持之以恒强化理论武装、全力以赴提升工作质量、一以贯之发挥代表作用,推动中央人大工作会议精神在地方人大工作中全面贯彻落实、开花结果。', '林芝市各级人大及其常委会坚持以习近平新时代中国特色社会主义思想为指引,深入学习习近平法治思想、习近平总书记关于坚持和完善人民代表大会制度的重要思想和新时代党的治藏方略,将中央人大工作会议精神学习纳入必学科目,采取集体学习、自主学习、专家辅导等多种方式,准确把握精髓要义,做到学思结合、学用结合,累计组织开展学习210余场次、交流研讨180余人次、宣讲130余场次、培训60余场次。', '坚持人大在立法中的主导地位,推动科学立法、民主立法、依法立法,不断提高立法的针对性和精细化水平,制定五年立法规划和年度立法计划,及时启动《林芝市地方立法条例》修订工作,完成《林芝市市容和环境卫生管理条例》修订工作,完成《林芝市雅鲁藏布江保护条例》的报审、批准和公布工作。围绕法律法规、民族团结、经济、生态、民生等领域,通过执法检查、专题调研、听取专项工作报告、代表视察等多种方式对“一府一委两院”的工作进行监督。预算联网监督系统、审计整改工作“1+N”报告模式等人大监督方式不断深化拓展。', '林芝市各级人大及其常委会充分发挥代表主体作用,坚持在代表活动上积极探索创新,不断丰富代表联系群众的内容和形式。为保障代表履职积极性,市县两级人大均制定《人大代表履职经费保障及管理办法(试行)》,将经费保障纳入同级财政预算予以支持。围绕“高海拔学校供暖工程”“保障性住房建设”等重点建议和民生实事项目开展专题视察活动,积极探索开展民生实事项目人大代表票决制度。始终将代表业务能力提升放在首位,建立“初任培训、履职培训、专题培训”三位一体模式,市级人大组织开展代表培训4批次100余人次,组织开展考察学习和视察106人次,县(区、市)人大组织代表开展培训1800余人次。', '同时,按照新时代地方人大工作新要求,将民族团结进步创建工作与人大各项工作有机结合,推动民族团结进步创建工作在人大系统走深走实。紧扣铸牢中华民族共同体意识这一主线,深入开展民族团结进步创建学习、宣传、贯彻落实,成立创建民族团结进步模范区专项推进落实小组;开展民族团结进步专题讲座;累计开展《西藏自治区民族团结进步模范区创建条例》贯彻实施情况执法检查19次;听取民族团结进步创建专项报告3次;累计发出《着力创建全国民族团结进步模范区、努力做到民族团结进步走在全国前列——人大代表在行动倡议书》3500余份;组织2100余名各级人大代表向群众宣传政策、解答疑问、回应关切。']</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>西藏省</t>
-        </is>
+      <c r="A11" t="n">
+        <v>262</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>林芝市</t>
+          <t>西藏省</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
+          <t>林芝市</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
           <t>区外培训助发展改革先行添活力墨脱县推动产业高质量发展培训区外圆满完成</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>2023-11-01</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>http://www.linzhi.gov.cn/linzhi/xwzx/202311/bc931b4e8c7a434ea0f7914607f1bdde.shtml</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>['为深入贯彻落实党的二十大精神和习近平新时代中国特色社会主义思想，更好学习借鉴区外在产业高质量发展方面的典型经验和先进理念，探索符合墨脱推动高质量发展、促进改革开放先行工作新路径，根据县委决策部署，10月21日至30日，县政府副县长、培训班领队王翠丽带领墨脱县推动产业高质量发展培训班42名学员到陕西省汉中市留坝县开展学习交流，重点围绕乡村旅游发展模式、民宿建设运营和发展壮大村集体经济以及共建共创共享和美乡村等方面问计取经、拓宽思路、以学促干。', '以学为基础，理论授课淬思想。室内理论课上，留坝县文旅局副局长王敏、紫柏街道办事处党委书记范澄和农业农村局周世斌主任分别以《做实“四个一百”工程，助力乡村振兴》《小经济，也有大作为》《凝心聚力、开拓创新、发展壮大新型农村集体经济》为题，为学员们详细讲解留坝县在发展民宿经济和壮大村集体经济方面的典型做法，尤其是在授课中提到的“运营比策划重要、市场比资源重要、设计比建设重要、开拓创新更为重要”的产业发展理念引人深思。学员们在理论学习过程中，紧密结合墨脱发展面临的堵点难点问题，积极提问发言，在浓厚的学习氛围中，从不同角度对推动墨脱产业发展、壮大村集体经济等方面进行深入探讨，确保理论水平得到有效提升。', '以观为途径，实地教学拓思路。为进一步提升培训效果，增强学员们的学习获得感，10月24日至28日，培训班一行先后赴火烧店镇三农书院、中西沟村稻草人主题公园、月亮河帐篷营地、秦创原留坝“两山”创新中心、留坝县电商扶贫展示中心、楼房沟民宿集群、张良庙爱国主义教育基地、营盘足球小镇、高山花卉种植基地、江口镇青岗坪村、红二十五军江口旧址、留侯镇林下西洋参种植基地、红色文化体验基地、栈道渔村民宿等7个乡（镇）、20余个现场教学点开展实地学习。详细了解当地基层党建引领、民宿经营模式、两山集团运营模式以及文旅、体旅、交旅融合发展和林下经济、食用菌种植、人居环境整治等情况。每到一处，学员们都认真听介绍、看现场、问情况，边思考、边记录，相互进行交流探讨，全面了解留坝县在相关产业谋划布局和发展模式上的典型做法。', '以研为契机，交流探讨聚共识。此次培训，坚持把交流和讨论贯穿整个学习过程，先后六次组织学员针对理论学习和实地教学内容开展交流研讨，学员们相互交流学习过程中的所见、所思、所想、所学，紧密结合本乡（镇）、本部门实际，谈感想、说收获、献良策、话发展，交流内容丰富、成效明显、催人奋进，碰撞出了思想的火花，丰富了全体培训学员的理论知识，强化了扛起推动高质量发展、促进改革开放先行的担当精神，拓宽了推动产业发展的思维眼界，提升了业务能力和水平，激励广大学员进一步在“政策掌握的透、运用利用的准、利益分配的全”上下功夫，为做好本职工作注入新动能。', '培训结束后，学员们一致表示，留坝县地理环境、气候条件、发展要素等方面与墨脱县有很多相似之处，此次培训，是一次解放思想、提高眼界之行，是一次对标先进、激励奋进之行，通过学习培训，在工作理念上有了新认知，在推动发展的能力水平上有了新提升，回去后将以此次培训为新起点，紧密结合墨脱实际、认真吸收转化学习成果，开拓创新发展路径，在短板弱项上抓提升，在堵点难点上求突破，用勤劳的双手把家园建设得更加美丽，切实把培训学习成果转化为推动高质量发展的具体实践：', '更加注重绿色发展、农旅结合、村企合作，谋划集体经济发展，以“爱我墨脱·靓我家园”环境卫生大整治行动为载体，充分结合留坝县在共建共创共享和美乡村建设方面的典型做法，把“美丽边城·秘境墨脱”的名片越擦越亮。', '充分借鉴两山公司整合资源、村集体桥梁纽带、企业引领带动作用，兼顾企业、村集体、群众三方利益，实现多方共赢。', '以打造清洁能源强县为契机，探索建立农产品公用品牌，积极开拓农产品销售市场，不断拓宽群众增收渠道。', '通过此次考察学习，取长补短，结合主题教育“学思想、强党性、重实践、建新功”的总要求和县委九届四次全会精神，切实将墨脱推动高质量发展、促进改革开放先行各项目标任务更好落地落实。']</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>西藏省</t>
-        </is>
+      <c r="A12" t="n">
+        <v>262</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>林芝市</t>
+          <t>西藏省</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
+          <t>林芝市</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
           <t>工布江达镇念好驻村管理三字经筑实强基惠民第一线</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>2021-03-10</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>http://www.linzhi.gov.cn/linzhi/xwzx/202103/9c0e6b957f604d06b7ddd4a6ffcb09a4.shtml</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>['一直以来，工布江达镇党委严格落实“第一监管人”职责，把严管与厚爱贯穿于驻村干部管理全过程，做到真管真严、敢管敢严、长管长严，强化组织保障和制度保障，激励干部担当作为，把强基础惠民生作为驻村工作的出发点和落脚点，真正做到心中有民、创业为民、谋事为民，切实提升驻村队伍的战斗力和凝聚力。', '工布江达镇立足工作实际，坚持将“严”的标尺量到底，抓实驻村干部管理，着力锻造一支信念坚定、为民服务、敢于担当的“纪律铁军”。', '坚持以习近平新时代中国特色社会主义思想为指导，以加强党性修养、压实责任担当、提升综合素质为目标，强化驻村干部的理论知识水平和工作学习能力。2020年以来，本级组织召开驻村干部专题培训会议14次，覆盖36名驻村干部，及时传达学习相关会议、文件精神，明确近期重点工作，提出具体要求。组织2名村党支部第一书记参加市级党务知识培训，选派1名驻村工作队队长赴广东省中山市考察学习，提升眼界见识，学习好的经验做法，激发谋事创业的信心。', '印发驻村管理办法和驻村干部考核机制，不断更新完善细则，确保驻村干部“心中有责”、手中有“干货”。通过阶段性考核和年度考核，量化标准，根据实际表现和群众风评进行相应打分，促使“先进生”获得满足感和信念感，更加矢志奋斗，“后进生”不断立标杆、找差距、查不足、快马前进，形成互相学习、共同成长的良好氛围，极大地激发内生动力。', '强化组织保障，配套完成11个村（居）党群服务中心的建设及使用，一改往日村公房软硬件设施较差、空间规划混乱的问题，形成驻村干部办公、住宿和生活一体化的空间布局，为更加便利高效办公、更加用心为民服务提供基础支撑；强化人文关怀，利用建党节、国庆节、“三大节日”等重要节点，工布江达镇党委深入基层走访慰问驻村干部10余次，为他们送去大米、面粉、食用油、果蔬等生活必需品，致以温情节日问候，一点一滴温暖驻村干部的心，使他们真切感受到组织就在身边。', '以驻村干部的思想政治、工作表现、村干部及群众的评价为依据，2020年，实事求是推选市级优秀驻村工作队1个，推选市级优秀驻村干部2人，充分肯定他们的辛勤耕耘，也通过评优奖励的方式体现激励与关爱。', '贯彻“小切口解决大问题”的思路，从抓实驻村干部的思想政治工作、严肃驻村纪律入手，采取党政班子成员下村开展业务工作时同步督导村情民意掌握度、镇强基办联合镇纪委专项督导在岗在位及驻村任务落实、电话查岗等方式，重点围绕驻村干部对“驻村七项任务”、所驻村基本情况、基层党建工作的把握及“传帮带”作用发挥等方面，先后开展了30余次专项督查。通过常态化督促检查，主动查找问题，以“壮士断腕 刮骨疗毒”的勇气和决心，正视不足，并制定详细措施加以整改。', '在驻村干部监管上动真碰硬，推动驻村队伍思想从严、作风从严。2020年以来，工布江达镇党委对履职不到位的驻村干部进行“一对一”约谈，劝导其清醒认识工作职责，坚持为民服务；对驻村工作队、驻村干部脱岗漏岗离岗问题作出通报，责令其限时整改，并加强后期跟踪督促，禁止“走读”现象，较好地解决了驻村工作中存在的顽症痼疾。', '驻村是强基惠民的有力举措，驻村干部身上肩负着重大责任，工布江达镇认真念好驻村管理“三字经”，坚持严管、厚爱、多看“三管齐下”，筑牢强基惠民“第一线”，朝着全民小康的目标，吹响乡村振兴的号角。']</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>西藏省</t>
-        </is>
+      <c r="A13" t="n">
+        <v>262</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>林芝市</t>
+          <t>西藏省</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
+          <t>林芝市</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
           <t>顿珠次仁的草莓梦</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>2020-06-05</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>http://www.linzhi.gov.cn/linzhi/xwzx/202006/eb4060f532cd403ea36d36f63ecde897.shtml</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>['玛迪村脱贫摘帽了，但村集体经济还是“小散弱”，给村集体经济注入“营养剂”，让传统产业“脱胎换骨”，新兴产业“强筋壮骨”，助推村集体经济这趟列车越稳越好，带领群众实现致富，一直是玛迪村党支部书记顿珠次仁这个“火车头”的梦想。', '西藏林芝市墨脱县墨脱镇的玛迪村，是一个地处雅鲁藏布江下游，坐落在G559扎墨段沿线旁，门巴族聚集的小康示范村，村庄距墨脱县城约20分钟车程，这里夏无酷暑，冬无严寒，四季如春。顿珠次仁从村庄自然禀赋、地理位置、产业基础实际出发，俯下身子，挽起裤腿，一头扎进两座旧温室大棚，一门心思铺在草莓试种地，希望将玛迪村沉睡的资源变为村集体经济产生效益的资产。', '因为村庄里从来没有人种过草莓，起初人们并不看好，支持鼓劲的少，反对调侃的多，但他作为村里的“家长”，不仅要把党的声音传递到每个群众的心坎里，更要让党的政策在农村扎根发芽。脱贫只是第一步，还要扭紧脱贫“动力阀”，在抓党建促决战决胜脱贫攻坚上谋求突破，发展壮大村集体经济，成为群众增收致富的“摇钱树”“黄金果”。', '因为村庄里从来没有人种过草莓，起初人们并不看好，支持鼓劲的少，反对调侃的多，但他作为村里的', '顿珠次仁到处“取经”，孜孜不倦地学习温室草莓栽培技术，把在党建促脱贫考察学习中收获的知识融入其中，从修缮旧温室大棚，到选种、定植、温湿度调节、肥水管理、病虫害防治，他事事亲力亲为，毫不松懈，他把试种草莓视为养育自己的“孩子”，决心一定要让“孩子”健康茁壮成长。', '时间一天天过去，试种的草莓长势喜人，品质不错，于是顿珠次仁以宣讲脱贫政策为主线，组织村里的党员在试种地过主题党日，给党员上党课，分享种植经验，支部工作更有温度和色彩，凝聚力更强。', '在谈到草莓种植管理过程时，顿珠次仁向村民说:“草莓营养价值高，被誉为‘水果皇后’，我们种植草莓要坚持不喷农药、不施化肥、不用激素，坚持农业上的返璞归真，让顾客吃到最原汁原味的新鲜草莓,打造属于我们自己的‘玛迪草莓’品牌”。', '功夫不负有心人，试种的草莓终于开花结果，一颗颗鲜红的草莓，映在支书的脸上，暖在群众的心里，但草莓存储时间短，保鲜要求高，成熟的草莓必须尽快采摘并售卖，又一个难题迎面而来。村支书找到驻村工作队，群策群力，在包装和销售上进行创新，用前期卖草莓挣到的钱买来一次性塑料盒，并在侧面贴上“玛迪标签”，借助互联网，探索出了 “互联网+送货上门”订单式服务，', '功夫不负有心人，试种的草莓终于开花结果，一颗颗鲜红的草莓，映在支书的脸上，暖在群众的心里，但草莓存储时间短，保鲜要求高，成熟的草莓必须尽快采摘并售卖，又一个难题迎面而来。村支书找到驻村工作队，群策群力，在包装和销售上进行创新，用前期卖草莓挣到的钱买来一次性塑料盒，并在侧面贴上', '顿珠次仁努力“争做神圣国土守护者，幸福家园建设者”，一心抓党建促脱贫，谋求产业发展，带头试种草莓成功，蹚出了一条党建引领促发展的模式，在党支部的带动下，渐渐地，玛迪村“党员带群众，群众帮党员”种植草莓如火如荼……预计年产量达800余斤，为村集体经济增收3万余元，玛迪村村集体经济这趟列车越稳越好。']</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>西藏省</t>
-        </is>
+      <c r="A14" t="n">
+        <v>262</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>林芝市</t>
+          <t>西藏省</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
+          <t>林芝市</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
           <t>奋力建设全区改革开放先行区林芝市深化农村集体产权制度改革夯实乡村振兴基础</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>2023-11-01</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>http://www.linzhi.gov.cn/linzhi/xwzx/202311/6e38cc7b07174c10b9e40a3529871627.shtml</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>['农村集体产权制度改革（简称产改）是实施乡村振兴的重要制度支撑。林芝市坚持正确改革方向、坚守法律政策底线、尊重农牧民群众意愿原则，公平公正厘清资产，科学配置股权股份，充分盘活集体资产，推动资源变资产、资金变股金、农牧民变股东，让群众在改革中有了更多的获得感幸福感，夯实了乡村振兴的物质基础、群众基础和治理基础。', '抓实组织领导。设立市、县、乡、村四级领导小组，整合涉农资金支持产改经费1515万元，制定出台《林芝市农村集体产权制度改革工作实施方案》《林芝市农村集体经济组织成员资格与股权量化指导意见》等意见方案15件，明确改革路径、重点任务和配套措施等，并编印《政策汇编》《工作指南》手册，进一步明晰政策、流程和要求，确保政策执行不走样。巴宜区、米林市创新实行以“一线总指挥、一张蓝图绘到底、一套流程抓改革、一份责任书保落实”为主要内容的“四个一工作法”，推动如期完成第三批、第四批中央农村集体产权制度改革试点工作。抓实能力培训。坚持把“走出去、请进来”作为提高工作人员政策水平和业务能力的有效路径，组织市县乡村产改人员、乡村专干到区外先进地区考察学习；邀请区内外专家赴林调研指导、开展培训，累计举办市级推进会暨培训会5期，推动培训工作到村到人。对产改工作推进缓慢的县（区、市），派驻第三方技术人员和市产改办人员蹲点培训指导，确保产改工作有序推进。抓实政策宣传。县乡村三级总动员、深层次、多形式宣传产改政策，以群众喜闻乐见的方式，运用“一网”“一榜”“一册”（农村集体资产清查监管平台、农村集体资产清查公示榜、农村集体资产清查核资册），发放海报、传单、手册、藏汉翻译百问百答等宣传资料4.5万余份，深度宣传解读中央、自治区和林芝市各类产改政策，切实提高群众知晓率，让产改政策家喻户晓。', '突出清产核资工作。组建清产核资工作小组，一村一策制定清查方案，完成全市7个县（区、市）54个乡（镇）741个村（居）组清产核资工作，全市清查核实农村集体资产13.89亿元，其中经营性资产6.27亿元、非经营性资产7.62亿元。突出确认成员身份。明确成员确定的原则、程序和基本条件，成员资格界定关键环节予以张榜公示、接受监督，确保成员身份确认工作公开透明、合法合规。全市确认农村集体经济组织成员3.52万户、14.3万人，成员名册全部纳入各村产改工作档案，实行集中规范管理。突出明确权益份额。完成经营性资产股份合作制改革，将集体经营性资产以股份的形式量化到本集体成员。全市股权设置总股数9975.32万份，其中设置集体股131.91万份、家庭股1.82万份、人口股9841.41万份、农龄股1781.76份，量化资产总额5.45亿元。', '注重健全经济组织。选好集体经济组织带头人，推动村党组织书记通过法定程序担任村级集体经济组织负责人。选举产生首届农村集体经济组织理事会、监事会，明确资产范围、成员名册、组织机构、资产运营和财务管理等事项。完成设立农村集体经济组织和登记赋码工作，全市成立集体经济组织741个，登记赋码率100%。注重规范资产管理。做好产改“后半篇文章”工作，建立村级集体资产管理台账，健全集体资产登记、保管、使用、处置、备案等制度。规范村级“小微权力”运行，落实“四议两公开”和民主理财，实行村财乡（镇）代管机制。强化村级集体经济审计监督，做好日常财务收支定期审计，开展集体重大事项、债权债务、村干部任期及离任经济责任等专项审计。注重盘活集体资产。坚持放权赋能、盘活资产，整合开发村级旅游资源，积极探索“两山理论”转化路径，规范发展民宿经济，建成运营农牧民家庭旅馆648家，今年前三季度累计接待92.98万人次，实现旅游收入2.21亿元，辐射带动农牧民群众实现户均增收12万元。米林市流转土地2.4万亩（其中流转耕地5900亩）、实现增收880万元，成为村集体经济组织收益的主要来源。通过深化农村集体产权制度改革，持续扶持壮大村集体经济，让村集体资产”活起来”，有力促进农牧民增收，推动乡村振兴高质量发展。']</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>西藏省</t>
-        </is>
+      <c r="A15" t="n">
+        <v>262</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>林芝市</t>
+          <t>西藏省</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
+          <t>林芝市</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
           <t>林芝市积极推进跨省异地就医直接结算</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>2020-04-06</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>http://www.linzhi.gov.cn/linzhi/zwgk/202004/afaf43234c01448ea5a9449551cdefeb.shtml</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>['近日，记者了解到，林芝市城乡居民医保制度完成整合后，相关配套的信息化建设于2019年1月18日正式在首批十家定点医疗机构上线启用，这标志着林芝市近16万城乡居民告别了城镇居民与农牧民医保二元分设，基本医疗、大病保险、医疗救助三重制度各自为政，手工核报慢、报销难的历史，迎来了市级统筹的城乡居民集基本医疗、大病保险、医疗救助一站式一单结算的崭新“基本医疗有保障”的制度体系。', '2020年1月16日，全区城乡居民医保信息系统建设现场会议在林芝召开。会上，自治区医保局党组成员、副局长郑雪红介绍：“林芝市医保局挂牌后，秉承‘创新监管、为民服务’的办局宗旨，提前谋划，在自治区政府文件下达后的短短10天内，积极探索完成整合城乡居民基本医疗保险制度，走在了全区前列。”', '作为组建负责人，林芝市医保局局长蒲前亨向记者介绍了林芝城乡居民医保整合工作的情况。据了解，蒲前亨多次向林芝市委、市政府，自治区医保局汇报、沟通、对接，积极争取政策支持和业务指导，林芝市政府专门划拨503万元经费用于支持医疗保障局办公楼改造和市级医保中心机房迁移升级项目，建成了区内唯一符合国家级标准的现代化、智能化数据机房。此外，自治区医保局划拨176万元能力提升建设资金用于解决林芝市医保局新组建过程中的党组织建设、信息化配套建设、群众满意度提升等问题，并从林芝市质监局、工商局、人社局、卫健委等部门选优配强工作人员，有力提升了医疗保障工作的服务能力和水平。', '针对群众反映存在的城乡居民医疗保险待遇差距问题，林芝市医保局党组先后组织人员深入六县一区调查研究，发现了林芝市农牧区合作医疗的大病统筹基金透支以及家庭账户结余等一系列问题，并赴青海省玉树州、云南省迪庆州等地考察学习，借鉴工作经验和做法，提出了针对性的意见建议，先后形成专题调研报告6篇。', '为贴近基层群众新需求新期待，林芝市全面落实放管服工作改革要求，引入保险行业和金融服务窗口在医保大厅集中办公，基本实现“一站式服务、一单式受理”。同时，以“群众好办事、办好事”为目标，简化报销手续、优化服务流程，先后取消医院等级证明、配偶无工作证明、休假证明等5项证明，将原有提交性材料简化为证明性材料，减少盖章、审核、备案等各种繁琐手续和环节，落实限时办结制，提升办理效率。', '3月31日，林芝市城乡居民医保信息系统在全区率先与全国异地就医平台对接切换，目前已完成与四川成办医院、自治区医保服务中心等地的异地就医实时结算和门诊实时结算测试，经异地就医备案后的林芝市城乡居民可实现全国范围内的住院一站式一单结算和西南五省的门诊实时结算。', '记者了解到，目前，林芝市医疗保障局正在自治区医疗保障局的支持下，将进一步完善城乡居民医保信息系统，协调推进个人缴费征收工作，加快全区城镇职工基本医保信息系统在林芝上线测试运行工作，全力推进电子医保凭证系统在林芝落地应用，在林芝颁发全区第一张电子医保凭证，构建智能监管医保基金平台，管好百姓救命钱。']</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>西藏省</t>
-        </is>
+      <c r="A16" t="n">
+        <v>262</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>林芝市</t>
+          <t>西藏省</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
+          <t>林芝市</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
           <t>考察交流学先进拓宽思路共发展林芝市组织广大青年赴广东开展交流活动</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>2023-07-21</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>http://www.linzhi.gov.cn/linzhi/xwzx/202307/06a4829b7c13470496299cbba98df1c9.shtml</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>['日，交流学习团一行到广州志愿者学院上团课并参访，广州市团校胡勇老师以《学习宣传贯彻习近平总书记重要讲话精神，全面落实团十九大部署》为专题，用喜闻乐见的形式从深刻领会习近平总书记重要讲话精神、党中央致词精神以及团十九大重要部署等方面讲授，切实让广大青年领会了团十九大报告蕴含的重要精神，实现了统一思想、统一意志、统一行动的目标。下午，交流学习团一行到广州环投福山环保能源有限公司、广电运通金融电子股份有限公司实地观摩参访，在广州环投福山环保能源有限公司先后参访了科教中心、垃圾储存坑、废渣车间，详细了解垃圾处理的工艺流程、垃圾分类方法及终端处理工艺技术等情况，感受国际科技领先的综合性一流环保环卫产业发展；在广电运通金融电子股份有限公司，跟随讲解员的详细介绍，交流学习团一行参观广电运通人工智能创新中心，了解广电运通发展史、核心技术以及产品研发，见证了', '“城市智能领域”的蜕变，包括“智能安防”“智能交通”“智慧银行”等领域，切实让大家感受到科技创新的发展提升。', '日，交流学习团一行乘坐游轮参观港珠澳大桥，了解世界上最长跨海大桥的建筑历程。登上邮轮，视野开阔，水天一色，一条横跨海上的桥梁立在眼前，大家纷纷拍照合影，交谈甚欢，共同观赏珠海风貌，近距离的感受大桥的壮美，给大家内心以深深的震撼，真真切切的感受着大国工程的宏伟瑰丽。下午，在讲解员的带领下，来到格力电器股份有限公司展览厅，了解格力是如何走向一条自主创新、自力更生的发展道路，先后参观了空调博物馆、格力零碳智慧家、自动化装备、奏乐机器人等，对创立至今三十多年的格力公司，大家对其文化以及在产品研发和科技创新方面的突出成果有了更加深入的见解，切身感受到格力不断创新的企业精神和精益求精的理念。随后来到珠海兰格企划有限公司，工作人员为大家介绍了公司的业务和经营状况，带领大家观赏近', '张摄影作品，以真实鲜活的摄影艺术向大家呈现广东非凡十年的辉煌成就，展示新时代人民群众富足、和美、绿色、幸福的小康生活，最后，交流学习团与公司优秀青年进行座谈交流，畅谈公司发展规划，如何整合资源，发挥兰格企划优质艺术分享平台，大家也纷纷分享观赏心得，感受作品背后蕴含的中国民俗文化。', '日，交流学习团一行来到深圳市党群服务中心沉浸式参观，在讲解员激情澎湃的引导和介绍下，大家都以庄严的姿态认真聆听，沿着历史轨迹抬阶而上，通过一幅幅珍贵的图片和文字注释，了解党的成立，回顾党史发展历程，共同学习党史教育，大家纷纷表示，今天的生活来之不易，如果没有中国共产党的领导，就没有现在国家的繁荣富强，人民幸福美好的生活。', '日上午，交流学习团一行前往红色教育基地莲花山公园游览，沿着台阶徒步登上莲花山，重走习近平总书记考察之路，登上莲花山山顶，大家瞻仰缅怀一代伟人邓小平铜像，表达对中国改革开放总设计师邓小平同志的敬仰和怀念之情。参观结束后组织召开了交流总结座谈会，与会人员就此次', '“民族团结一家亲 粤藏同行新时代”学习交流活动做分享发言，大家谈心得、谈感受、找问题、找方法。', '此次活动通过实地参观、沉浸式体验、交流分享等形式，大家都收获满满，这次考察学习不仅开阔了眼界，而且引发了对高新企业发展以及先进理念和工作的深度思考，将把此次所学所悟所获扎实有效的体现和运用到实际工作岗位中。下一步，不断加强青年思想引领，凝聚共青团力量，共同营造同心同行、交往']</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>西藏省</t>
-        </is>
+      <c r="A17" t="n">
+        <v>262</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>林芝市</t>
+          <t>西藏省</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
+          <t>林芝市</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
           <t>福建对口支援林芝工作取得良好开局</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>2012-04-28</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>http://www.linzhi.gov.cn/linzhi/xwzx/201204/17cc67e15ec449a4b4d46375bf482907.shtml</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>['通过深入调研论证，福建省援藏工作队结合中央第五次西藏工作座谈会的要求和林芝发展实际，按照建设“重要的世界旅游目的地”和“西藏第二大旅游集散地”的目标定位，提出林芝是世界的林芝，突出以培育生态旅游业为工作主线,以主导产业为发展目标，通过旅游产业体系的培育，促进“输血”型援助向“造血”型援助有效转变。重点实施旅游产业“十个一”工程。即：一是做大一县（场）一特色产业，发展县域经济；二是建设一个旅游商业服务中心——工布映像二期改造建设；三是创办一批特色家庭旅馆，增加农牧民收入；四是开发一个生态旅游景区——比日神山国家森林公园；五是申报一个文化生态保护区——藏东南国家级文化生态保护区；六是培训一支旅游骨干队伍，提升林芝酒店管理和导游队伍水平；七是打造一台特色晚会——林芝地区民族特色歌舞晚会；八是开拓一个游客市场——闽台游客市场，发挥闽台交流的优势，吸引闽台游客进藏旅游；九是开通一条直飞航线——厦门（福州）至林芝的航线；十是拍摄一部林芝旅游风光宣传片。并通过“十个一”旅游项目的实施，以旅游产业的发展，带旺林芝的人气，壮大经济体量；以旅游产业的发展，带动林芝城市基础设施建设和城市管理水平的提高；以旅游产业的发展，带动高原特色农牧产品的销售，增加就业机会，从而促进农牧民增收；以旅游产业的发展，推动林芝特色民族文化的挖掘、传承、发展和创新；以旅游产业的发展，促进与内地的交流交往，从而带动思路、理念、思想观念的转变；以旅游产业的发展，激活内生活力，培养造血功能，建立起以旅游产业为主导的产业发展体系，从而把旅游产业打造成能够支撑林芝地区跨越式发展的战略主导产业。', '援藏工作队利用中央赋予西藏的特殊政策大力实施招商引资工作，先后到河北、江苏、广东、湖南、海南、北京、天津、甘肃、福建等地招商引资，目前已引进56个项目，协议金额80余亿元，2011年新增招商引资项目为地区交纳税款22.48亿元，使地区2011年税收增长7倍。目前，又有一批项目洽谈成功，国内外一些知名企业，如平安保险公司、周大福集团公司、正大集团、诺普信公司等落户林芝，为地区经济的发展增强了活力，也增添了后劲。', '根据中央第五次西藏工作座谈会精神，对口支援省份援藏资金要按地方财政一般预算收入的1‰援助西藏发展，福建省第六批援藏资金为2.95亿。为发挥资金最大效益，产生“酵母”作用，援藏工作队一方面积极争取国家投资，主动把援建项目向国家发改委、文化部、财政部、科技部、治理荒漠化基金会等有关部委汇报，争取支持。目前，香港路改造和“工布映像”二期片区改造项目已争取国家投资4000万元，荒漠化治理改造、比日神山国家森林公园和藏东南国家级文化生态保护区等项目正在上报争取国家投资支持。另一方面，想方设法撬动民间投资，把涉及旅游、文化、商贸等援藏项目向社会招商，目前已引进民间意向投资5亿余元。一是推进“工布映像”二期改造建设，借助民间资本投入，把“工布映像”片区打造成一个集旅游、购物、休闲、商务等功能为一体化的高品质旅游服务中心。二是通过申报藏东南国家级文化生态保护区工作，吸引民间资本投资热情，把林芝地区打造成文化交流平台，助推林芝旅游产业发展。三是积极促进福州、厦门至西藏林芝地区的直飞航线。为解决加快林芝地区旅游业发展的部分瓶颈问题。2010年9月9日，福建省第六批援藏工作队与厦门航空有限公司商谈开通厦门直飞林芝航线事宜后，厦门航空有限公司高度重视，立即启动直飞项目前期准备工作，目前已购进四架适合西藏高原地区飞行的高原飞机，今年元月15日进行福州、厦门直飞拉萨首航，争取开通直飞林芝航线。四是通过拍摄林芝旅游风光宣传片，充分展示林芝地区经济社会和文化发展的“软实力”。目前，已委托著名导演陈凯歌旗下的北京功德海文化传播公司拍摄林芝旅游风光宣传片，进一步宣传推介林芝。2011年10份以来，拍摄组分冬、春、夏、秋四季深入林芝、墨脱、波密、米林、工布江达等地拍摄，并计划将把这部风光片拿到国际上参赛，进一步扩大林芝地区旅游业在国内外的影响力。', '做大一县（场）一特产业。朗县共投资3660万元，占总援藏项目资金的60%以上，重点扶持“两椒两桃”等特色优势产业发展，打造“输血+造血”型产业，扩宽农牧民增收渠道。米林县以农民增收为重点，坚持做大、做优、做新，做出品牌，使米林县的藏猪、藏鸡、水果、藏药材等产业成为农牧民稳定增收的主要渠道。墨脱县充分利用冬季适宜种植露天蔬菜等自然优势，大力实施“一乡一品”工程，开发反季节蔬菜、水果产品，建设特色农产品基地和特色热带、亚热带水果生产基地和养殖基地，为实现农民增收提供可靠产业支撑。工布江达县立足建设水能矿产大县、生态旅游名县这一定位，全力培植旅游、水电、矿业三大支柱产业。米林农场依托资源优势，推进产业结构调整和优化升级，重点发展苹果、葡萄、油桃、西瓜和花卉等十六个品种，扩大了优质水果种植和种苗繁育规模。目前，农场优质水果种植面积近3640亩，年产量约2000吨左右，种苗繁育100亩，已经繁育苹果、葡萄、油桃等水果优质种苗20余万株，成为西藏规模最大的优质水果生产基地和果苗繁育基地。', '大力创办特色农家旅馆。组织地区发改委、旅游局、建设局、文化局、林业局和民族宗教局等部门人员组成考察团，分赴云南、四川两省考察学习当地旅游业发展状况。今年，还将组织一批经营家庭旅馆的农牧民赴四川考察家庭旅馆经营情况，以提升林芝地区特色家庭旅馆经营水平，切实增加农牧民收入。', '培训旅游骨干队伍。举办了林芝地区首届旅游饭店管理人员岗位培训班。由福建省旅游干部学校骨干教师赴藏讲学授课，有针对性地开设了旅游概论、员工素质拓展、服务礼仪、服务质量控制、市场营销、品牌战略、旅游法规、公共关系等8个专业课程，并在西藏首次采取“培训＋考试”的方式，向所有合格学员颁发了适用于全国各地的旅游行业管理人员岗位培训证书。来自全地区30多家宾馆饭店的109名学员参加了为期7天的专业培训，56名学员通过培训考试荣获全国旅游行业管理人员岗位证书，提升了林芝酒店管理和导游队伍水平。', '打造一台特色歌舞晚会。目前，这台晚会初步定名为《寻找香巴拉》文化晚会，已委托北京功德文化传播公司进行策划，由西藏第三极文化传播公司承接，争取今年9月份推出，届时这台晚会的演员将以林芝地区农牧民为主体，充满浓厚的工布藏民族特色，满足游客的需要。', '开展校地合作。借助福建农林大学科技、人才、技术优势，为林芝地区开展技术指导、人才教育培训、项目交流合作等工作。目前，林芝地区与农林大学菌草分产品开发、花卉等10个合作项目取得初步成效，将为农牧民增收开辟一条新途径。', '大力开展人才、智力援藏工作。先后组织林芝地区各级各部门干部参加福建省举办的各类培训班20多期，培训干部1600多人次。从福建省旅游、组织、人事、海洋渔业、教育、科技、文化等部门选派专家学者到林芝地区开展教育培训、技术指导32批次，林芝地区共有8000多人次接受了各类培训和技术指导。']</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>西藏省</t>
-        </is>
+      <c r="A18" t="n">
+        <v>262</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>林芝市</t>
+          <t>西藏省</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
+          <t>林芝市</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
           <t>墨脱县召开县委理论学习中心组年第次扩大会暨进一步改进作风狠抓落实工作六问大讨论专题会</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>2023-08-31</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>http://www.linzhi.gov.cn/linzhi/xwzx/202308/4f955b22470d4472b5adc71ce594c666.shtml</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>['墨脱县召开县委理论学习中心组2023年第10次（扩大）会暨进一步改进作风狠抓落实工作“六问”大讨论专题会', '8月30日，市委常委、常务副市长，墨脱县委书记符永波主持召开县委理论中心组2023年第10次学习（扩大）会议。会议传达学习习近平总书记关于全面落实以人民为中心的发展思想，学习贯彻习近平总书记重要指示批示、重要讲话精神和党中央、国务院及自治区、市有关会议文件精神，专题学习了市委二届四次全会精神，进一步落实以学正风重要要求，围绕学习自治区党委十届四次全会精神、进一步改进作风狠抓落实工作“六问”大讨论分别进行交流研讨。在家县委理论中心组成员和县直相关单位负责同志共50人参会。', '会议强调，市委二届四次全会吹响了推动林芝高质量发展、促进改革开放先行的号角，全会确定的“两地五区”总体目标和“六大工程”“八大行动”重点任务，为推动墨脱高质量发展指明了方向和路径。全县各级各部门要牢固树立“不跑、慢跑就是落后”的理念，找准市委部署与墨脱工作的契合点、切入点和突破口，转变作风，狠抓落实，推动市委各项决策部署在墨脱落地落实，努力走出一条更可持续的生态优先、绿色发展之路。', '会议强调，要深入学习贯彻习近平新时代中国特色社会主义思想和自治区党委、市委决策部署，真学、真信、真用，入脑入心入行，做到知其言更知其义、知其然更知其所以然，用党的创新理论武装头脑、指导实践、推动工作落实。', '会议强调，要始终强化宗旨意识，牢固树立以人民为中心的发展思想，始终锚定“人民对美好生活的向往就是我们的奋斗目标”，着力解决好人民群众急难愁盼问题，实现好、维护好、发展好最广大人民根本利益。紧扣“一村一策”“一户一案”，牢固树立为民初心，深入贯彻群众路线，切实厚植为民情怀，结合工作实际，拿出务实管用的工作措施、抓手，增加群众收入，不断提升人民群众获得感、幸福感、安全感。', '会议强调，要以习近平总书记在主持中央政治局常委会研究部署防汛抗洪救灾和灾后恢复重建时的重要讲话和对凉山州金阳县洪灾作出的重要指示精神为指引，深刻认识安全生产是一项极端重要的工作，以时时放心不下的责任感抓好安全生产，严格落实安全生产十五条硬措施和“三管三必须”要求，吸取近期区内外安全事故教训，突出抓好地质灾害、防洪防汛、交通运输等重点领域安全，强化监管实效，坚决纠正执法检查“宽松软”等问题，采取“四不两直”方式加强值班带班督导检查，严格实行汛期24小时值班带班制度，强化防灾减灾救灾和应急准备，全面排查处置安全隐患，尽最大努力避免出现人员伤亡，切实维护好人民群众生命安全和身体健康。', '会议强调，要贯彻落实敖刘全书记在主持召开林芝市着力创建“三区一高地”领导小组会议时的讲话精神，坚决确保政治和社会安全，持续在深化反分裂斗争、意识形态安全、重点领域管控上见真章，深入开展“三个意识”教育活动，常态化做好民族团结进步创建工作，促进各民族交往交流交融。要着力解决生态环境存在的突出问题，持续推进中央生态环境保护督察反馈问题整改。要坚持“三个赋予一个有利于”要求，推动固边兴边富民行动，在培育旅游产业、壮大市场主体、链接群众增收上下功夫，把墨脱打造成高质量发展的高地。', '会议强调，要深入学习贯彻习近平总书记同团中央新一届领导班子成员集体谈话时的重要讲话精神，着力加强对广大青年的政治引领，充分发挥青年生力军和主力军作用，扩大共青团工作的有效覆盖面，发挥党建带团建作用，规范团员发展和教育管理，不断夯实共青团组织基层工作力量，推动构建共青团组织工作崭新格局。', '会议强调，要提高思想认识，把新时代文明实践工作当做一件大事来抓，深入基层广泛宣传，切实发挥传播科学理论、培育时代新人、弘扬新风正气、服务基层群众平台作用。坚持目标导向，整合阵地、队伍等各方资源，创新工作载体，结合驻村工作，打造“爱我墨脱 靓我家园”等系列主题活动，打通服务群众“最后一公里”。', '会议强调，要提高政治站位，坚持问题导向，强化组织保障，特别是两办要统筹做好全县为基层减负工作，科学精准靶向整治，破解形式主义、官僚主义难题，切实为基层减负松绑。', '会议强调，县人大常委会、县政协赴陕西延安、云南大理、四川雅安等地考察学习的调研报告，成果突出，针对性很强。各职能部门要认真学习调研报告，汲取区外先进经验，加强调研成果转化，守护好“秘境墨脱”的山山水水，把墨脱建设成名副其实的“美丽边城”。']</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>西藏省</t>
-        </is>
+      <c r="A19" t="n">
+        <v>262</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>林芝市</t>
+          <t>西藏省</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
+          <t>林芝市</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
           <t>年林芝市人民政府第四次常务会议召开研究部署民族团结进步示范市创建工作</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>2020-04-26</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>http://www.linzhi.gov.cn/linzhi/xwzx/202004/a40870d0c6b04dfea047c171f44b6336.shtml</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>['4月23日，中共林芝市委副书记、市长旺堆主持召开2020年林芝市人民政府第四次常务会议，研究了《林芝市创建全国民族团结进步示范市工作小组关于审定印发&lt;林芝市2020年创建全国民族团结进步示范市巩固提升工作方案&gt;的请示》等事项。', '&lt;林芝市2020年创建全国民族团结进步示范市巩固提升工作方案&gt;的请示》有关事项，并指出，林芝是一个以藏族为主体，汉、门巴、珞巴等35个民族和僜人和睦相处的多民族聚居区，创建全国民族团结进步示范市意义重大。各有关部门要按照', '“五个林芝”和“五城同创”总体要求，齐心协力，全力以赴抓好全国民族团结进步示范市创建工作。', '会议强调，全市各级各部门一定要深入学习贯彻习近平总书记在全国民族团结进步表彰大会上的重要讲话和吴英杰书记在', '国务院办公厅印发〈关于全面深入持久开展民族团结进步创建工作铸牢中华民族共同体意识的意见〉的通知》《西藏自治区民族团结进步模范区创建条例》《中共林芝市委员会', '林芝市人民政府关于进一步加强新形势下民族团结工作的意见》和《林芝市创建全国民族团结进步示范市活动方案》精神，紧紧围绕创建全国民族团结进步示范市各项测评指标，坚持将机关、企业、社区、乡镇、村（居）、学校、连队、宗教活动场所等作为民族团结进步创建的主阵地、主渠道，重点在培育中华民族共同体意识、广泛拓展各民族交往交流交融、提高依法治理民族事务能力等方面下功夫，以培树典型、创新载体为抓手，持续巩固和发展以往的创建成果，不断提升创建全国民族团结进步示范市工作水平。', '充分学习借鉴区内外兄弟省市创建工作经验做法，抢抓时间、补足短板，进一步开展好我市创建全国民族团结进步示范市工作，以新成效迎接自治区初验和国检。', '各级党委、政府和主要负责同志要不断提高政治站位，始终把创建工作摆在突出位置、列入重要议事日程，经常听取汇报、研究解决问题；要按照', '，进一步研究完善工作方案，细化分解各项指标任务，压实创建工作责任，进一步完善民族团结进步创建工作体制机制，推动各项创建工作措施全面实施；', '强化纪律约束，把民族团结进步创建工作纳入地方党政领导班子和领导干部政绩考核；加强日常监督，建立健全监督检查机制，建立激发民族团结正能量激励机制。各级宣传、统战、民宗部门要切实承担起具体组织实施、推进落实的责任，紧盯目标任务，积极主动抓好落实工作。各有关部门要牢固树立', '“一盘棋”思想，克服本位主义，通力配合，无缝对接，高效运转，形成抓落实的强大合力。', '市、县（区）及其宣传、民宗部门要结合各自实际，着力打造一批特色鲜明的爱国主义（民族团结）教育基地、民族团结进步示范区', '(单位)、民族文化广场、民族团结街等，树立和突出各民族共享的中华文化符号和中华民族形象。要充分利用现有的户外广告牌、电子屏等，通过制作民族团结宣传册、宣传栏、文化墙等形式，切实增强民族团结进步创建家喻户晓、人人皆知的覆盖面。各级宣传部门和各类新闻媒体要采取开辟专题专栏、新闻报道、拍摄宣传片等方式，大力宣传党的民族政策，大力宣传创建工作中涌现出的先进典型和先进事迹，使先进典型有荣誉感、自豪感，使广大群众有崇敬心、拥护情，进一步营造人人关心、人人参与、人人支持创建工作的浓厚氛围，形成推动创建全国民族团结进步示范市纵深发展的强大动力。', '《林芝市创建全国民族团结进步示范市活动方案》及其测评指标体系，全面开展自查自验活动，查漏补缺，补齐短板，确保创建全国民族团结进步示范市', '组织七县（区）创建办和成员单位干部到区内外考察学习创建工作好经验好做法，加大工作力度，及时弥补不足、查漏补缺。', '。要强化创建工作力量，全面负责全市创建日常工作，确保创建工作有人抓、有人管。市、县（区）财政部门要安排创建专项工作经费，为全面推进创建工作提供必要的资金保障。', '各级宣传、统战、民宗部门要围绕重点工作任务，切实加强对各县（区）、各单位各部门创建工作进展及成效的督促指导，既要对工作中流于形式、走过场的单位进行严肃问责，又要认真总结推广创建工作的好经验好做法，切实通过严实的督导，确保创建工作方向不偏，取得实实在在成效。']</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>西藏省</t>
-        </is>
+      <c r="A20" t="n">
+        <v>262</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>林芝市</t>
+          <t>西藏省</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
+          <t>林芝市</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
           <t>王君正率西藏自治区党政代表团赴陕西省考察学习</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>2023-10-27</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>http://www.linzhi.gov.cn/linzhi/c100004/202310/e81275a707a84f0abb32bb17c0f2e0d4.shtml</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>['10月23日至25日，西藏自治区党委书记王君正率西藏自治区党政代表团赴陕西考察学习。这是代表团在陕汽集团考察学习。', '10月23日至25日，西藏自治区党委书记王君正率西藏自治区党政代表团赴陕西考察学习，并召开两省区工作交流座谈会。这是座谈会现场。', '10月23日至25日，西藏自治区党委书记王君正率西藏自治区党政代表团赴陕西考察学习，并召开两省区工作交流座谈会。西藏自治区党委书记王君正、陕西省委书记赵一德出席并讲话。陕西省委副书记、省长赵刚，西藏自治区党委副书记、自治区常务副主席陈永奇分别介绍两省区经济社会发展情况。', '金秋时节、天高云淡，代表团来到西安国际港务区，详细了解规划建设、外贸进出口业务开展等情况，学习借鉴推进自贸区建设、助推高水平对外开放的经验做法。陕汽集团、秦创原综合服务中心、商汤智能科技公司、中国西部科技创新港、大唐不夜城，全方位展示了陕西在设备制造、高新技术研发、文化旅游产业发展等方面取得的新成就、新进步，代表团看展板、听介绍，实地感受陕西产业结构优化升级、科技管理体制改革、政产研深度融合、文旅业态创新等方面的亮点经验。大家认为，这次考察进一步加深了对习近平新时代中国特色社会主义思想的全面理解和深刻把握，感受到了陕西坚决贯彻落实党中央决策部署的政治自觉和使命担当，学习了陕西经济社会高质量发展的好经验好做法，开阔了视野、启迪了思路，增添了全面建设社会主义现代化新西藏的信心决心。', '·西藏工作交流座谈会上，王君正感谢陕西长期以来对西藏工作的大力支持，对陕西经济社会发展取得的成绩表示祝贺。他说，党的十八大以来，以习近平同志为核心的党中央高度重视西藏工作，习近平总书记多次对西藏工作作出重要指示批示，明确了“稳定、发展、生态、强边”四件大事，提出了长治久安和高质量发展两大战略任务，确立了新时代党的治藏方略，推动西藏各项事业不断取得新进步、实现新发展。', '王君正指出，西藏和陕西有着悠久的联系，交往交流交融历史源远流长。在解放西藏、建设西藏的伟大历程中，陕西省给予了无私援助、大力支持。这份', '“同志+兄弟”的革命情谊，西藏人民将铭记在心。希望陕西一如既往加大对口支援力度，加大资金投入力度、加快项目建设进度，助推西藏经济社会高质量发展。', '“一带一路”建设的重要节点；西藏是国家重要清洁能源资源接续基地，是面向南亚开放的重要通道，两省区在融入“双循环”新发展格局和构建全国统一大市场中互补性强、合作潜力巨大。', '要围绕高质量发展、深化产业培育，在清洁能源、农畜产品深加工、数字经济等方面加强合作，发挥龙头企业带动作用，切实把西藏资源优势转化为经济优势、发展优势。共同推动文化旅游高质量发展，旅游是陕西的标志性名片，独特的自然人文景观是西藏取之不竭的', '“富矿”，双方要在旅游推介、资源开发、游客互送等方面加强合作，共同做大做强旅游市场，切实把文化旅游产业打造为西藏支柱性产业。加大教育科技人才合作力度，陕西是科教大省、科教资源富集，西藏拥有特色优势学科，双方要加强以高校、企业为主体的协同创新，助力西藏高校优化学科建设、强化学科创新，推动陕西创新资源向西藏辐射转移，推动科技成果在藏转化。坚持以铸牢中华民族共同体意识为主线，持续做好人口素质提升、人心凝聚、人才培养工作，深化全方位交往交流交融；扩大内地西藏班规模，支持西藏籍高校毕业生区外就业，拓宽帮扶渠道、加大保障力度，引导广大青年积极投身社会主义现代化国家建设。', '赵一德代表陕西省委、省政府对西藏自治区党政代表团的到来表示热烈欢迎，向西藏长期以来对陕西的大力支持表示感谢。他说，党的十八大以来，在以习近平同志为核心的党中央坚强领导下，西藏各族干部群众艰苦奋斗、顽强拼搏，西藏步入发展最好、变化最大、群众得实惠最多的新时代，取得的一系列成就令人钦佩，创造的许多经验做法值得陕西借鉴，展现出的老西藏精神值得陕西学习。当前，陕西正按照习近平总书记的指引，全力构建', '“国之大者”，围绕“稳定、发展、生态、强边”四件大事，聚焦西藏所需、竭尽陕西所能，持续用力做好智力援藏、民生援藏、产业援藏、文化援藏等各项工作，促进各民族交往交流交融，助力建设团结富裕文明和谐美丽的社会主义现代化新西藏。', '赵一德强调，陕西与西藏同处西部地区，希望一道融入和服务构建新发展格局、新时代推进西部大开发形成新格局，不断深化文化旅游、生态保护、产业发展、科技创新、社会治理等领域交流，推动双方合作向更高水平、更深层次、更宽领域迈进，携手谱写中国式现代化建设的陕西新篇章、雪域高原长治久安和高质量发展新篇章，为推进强国建设、民族复兴伟业作出更大贡献。', '在陕期间，王君正等还来到西藏自治区驻西安办事处考察调研，看望慰问高翔、张生蓉、刘殿功等退休老同志。每到一处，王君正都与老同志亲切交谈，关切询问他们生活起居和健康状况，共同追忆西藏和平解放', '70多年来的峥嵘岁月，衷心祝愿他们阖家幸福、健康长寿。他说，广大老同志亲身参与、亲眼见证了西藏的繁荣发展，推动了西藏长治久安和高质量发展，为党和人民事业作出了积极贡献。各级各部门要用心用情用力服务老同志，真正使老同志老有所学、老有所养、老有所为、老有所乐；要继承老同志好传统好作风，赓续红色血脉，弘扬“两路”精神、老西藏精神、孔繁森精神，薪火相传、齐心协力，共同把西藏的事情办好，把党中央决策部署落到实处。', '西藏自治区领导嘎玛泽登、达娃次仁、坚参、张洪波、郎福宽、孟晓林，陕西省领导王晓、王琳、李明远、樊维斌、王海鹏、杨冠军，西安市领导叶牛平，西安交通大学领导王树国参加有关活动。']</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>西藏省</t>
-        </is>
+      <c r="A21" t="n">
+        <v>262</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>林芝市</t>
+          <t>西藏省</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
+          <t>林芝市</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
           <t>旦增拉姆带队前往上海市考察学习</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>2024-03-18</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>http://www.linzhi.gov.cn/linzhi/xwzx/202403/db86b868bafe4c56af56a9d6b8e550ed.shtml</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>['3月13日至16日,林芝市政协党组成员、副主席,巴宜区委书记、鲁朗景区党工委第一书记旦增拉姆带队,赴上海市考察学习文旅产业发展、城市基层治理等方面先进经验和典型做法,对接相关资源,进一步促进巴宜区改革开放先行区排头兵建设。', '旦增拉姆一行先后前往G60科技展馆、松江区中山街道城市运营中心,普陀区真如副中心、万里街道党群服务中心、复星集团、互集装配式建筑公司等实地考察并进行座谈交流。', '旦增拉姆一行认真听、仔细看、详细问,深入了解文旅融合发展、城市基层治理等情况。针对文化遗址保护利用、旅游产业开发建设等方面的典型做法,如何发挥文化资源优势、自然环境优势推动经济社会发展,进行了广泛深入交流。系统学习上海市在数字化城市建设、网格化治理、精细化服务等方面先进经验,并就如何更好践行“人民城市人民建,人民城市为人民”理念,与相关单位进行了深入探讨。', '此次考察学习,开阔了眼界、更新了观念、丰富了思路,为推进我区文化事业和旅游产业提档升级、提升基层治理能力和治理体系现代化水平提供更强的智力支撑。']</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>西藏省</t>
-        </is>
+      <c r="A22" t="n">
+        <v>262</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>林芝市</t>
+          <t>西藏省</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
+          <t>林芝市</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
           <t>齐扎拉率团赴三峡集团考察学习</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>2020-09-15</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>http://www.linzhi.gov.cn/linzhi/c100004/202009/2cf50224db444dee9449df50e96498f4.shtml</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>['9月11日至14日，区党委副书记、自治区主席齐扎拉率团来到三峡大坝、葛洲坝水利枢纽以及乌东德、白鹤滩水电站考察学习。', '三峡集团党组书记、董事长雷鸣山，三峡集团党组副书记、总经理王琳等分别陪同考察，自治区人大常委会副主任纪国刚，自治区副主席张永泽、任维参加考察。', '三峡电站是世界上规模最大的水电站，也是中国有史以来建设的最大型工程项目。葛洲坝水利枢纽是长江上第一座大型水电站。乌东德水电站是金沙江下游四个梯级电站的第一梯级，今年6月29日，乌东德水电站首批机组正式投产发电，习近平总书记对乌东德水电站首批机组投产发电作出重要指示。白鹤滩水电站是金沙江下游干流河段梯级开发的第二个梯级电站，具有以发电为主，兼有防洪、拦沙、改善下游航运条件和发展库区通航等综合效益，建成后将成为仅次于三峡电站的中国第二大水电站。考察学习期间，大家边听边看边记，无不为伟大祖国感到骄傲自豪，无不为大型水利工程项目造福人民百姓的综合效益而感到无比震撼，无不为推动西藏清洁能源产业壮大发展信心百倍。', '齐扎拉指出，推进西藏清洁能源科学开发，是维护国家能源安全、促进能源结构调整的内在要求，也是增强经济发展“造血”功能、实现绿色发展的必然选择。我们要用心学习领会、全面贯彻落实中央第七次西藏工作座谈会特别是习近平总书记的重要讲话精神，站在维护国家安全、助推经济发展、改善民生福祉、保护生态环境的战略高度，深刻认识加快西藏清洁能源开发对于建设美丽西藏，实现资源优势转化为经济优势的特殊重要意义，认真学习中央企业经验做法，特别是创新的观念、先进的技术、扎实的作风，做到学有所思、学有所获、学有所用，切实把考察学习成果转化为更为务实的行动，把这个符合中央关于西藏的战略定位，以及广大人民群众热切期盼的产业发展壮大好，努力推动国家清洁能源基地建设。齐扎拉希望三峡集团、葛洲坝集团，在已有良好合作基础上，进一步强化合作，共同推动西藏清洁能源产业发展壮大，走出一条优势互补、互利共赢的路子。', '雷鸣山、王琳等表示，作为中央企业，将全面贯彻落实中央第七次西藏工作座谈会决策部署，积极主动服务于国家战略，履行好中央企业政治责任、社会责任、经济责任，全力支持西藏经济社会发展，深度参与西藏“十四五”时期重大项目实施，加快推进西藏清洁能源开发，继续统筹做好援藏等各项工作，为推动新时代西藏长治久安和高质量发展作出应有贡献。']</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>西藏省</t>
-        </is>
+      <c r="A23" t="n">
+        <v>262</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>林芝市</t>
+          <t>西藏省</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
+          <t>林芝市</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
           <t>米林县考察团赴兄弟县区考察搬迁安置工作</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>2019-05-14</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>http://www.linzhi.gov.cn/linzhi/xwzx/201905/468e3ac0a3ee414ca128ab906ff2dcd8.shtml</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>['4月初以来，工布江达县、巴宜区率先完成了林芝市前三批次搬迁群众安置入住工作。为深入了解兄弟县（区）“三岩”片区易地扶贫搬迁安置入住工作细节，学习借鉴他们的先进工作经验和做法，经米林县“三岩”搬迁工作领导小组同意，5月9日，由米林县人大常委会副主任、“三岩”办主任索朗带队，涉迁乡（镇）、行业部门、“三岩”办10余人组成的考察学习团先后前往工布江达县和巴宜区共计4个安置点考察学习。', '在学习考察中，兄弟县（区）负责同志详细地介绍了搬迁群众入住当天工作开展情况、搬迁群众人员信息对接和户籍迁转工作、耕地的配备与划分方式、搬迁群众生活资料等配置情况、各项惠民政策的接转等工作，并对搬迁工作中出现和存在的问题一一作了深入交流。在兄弟县（区）负责人的带领下，学习考察团深入搬迁群众家中，与搬迁群众促膝交谈，从深从细掌握了解搬迁群众的思想动态，为后续米林县的“三岩”搬迁安置入住工作积累了经验、奠定了基础。', '在学习过程中，米林县学习考察团成员态度认真、仔细查看、详细记录，对不明白、有疑惑的地方，积极询问、了解细节，全面掌握在“三岩”搬迁安置入住过程中可能出现的各类问题及解决方法。考察结束时，索朗代表考察学习团所有人员，对兄弟县（区）各位领导的耐心讲解和无私传授经验表达了诚挚地感谢，同时要求考察学习团要弄懂吃透藏政发〔2018〕18号文件精神，做实做细米林县“三岩”搬迁安置入住工作。', '在返回米林途中，考察学习团成员纷纷表示，此次考察学习的时间虽短，但影响极深、感触很多、收获颇丰，拓宽了“三岩”工作思路。大家将把在兄弟县（区）的学习成果真正运用到工作中，进一步扎实做好搬迁入住各项准备工作，为顺利推进米林县“三岩”片区易地扶贫搬迁工作打下坚实的基础。']</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>西藏省</t>
-        </is>
+      <c r="A24" t="n">
+        <v>262</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>林芝市</t>
+          <t>西藏省</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
+          <t>林芝市</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
           <t>林芝市委统战部组织召开增强三个意识践行四条标准铸牢中华民族共同体意识暨爱国主义国情教育总结研讨会</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>2023-06-01</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>http://www.linzhi.gov.cn/linzhi/xwzx/202306/7b39cd6ffa0e4ca5a6a19aaf7b37cae8.shtml</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>['林芝市委统战部组织召开增强“三个意识”践行“四条标准”铸牢中华民族共同体意识暨爱国主义国情教育总结研讨会', '在圆满完成宗教界代表人士赴北京、云南迪庆、四川成都等地的交流学习后，5月25日，林芝市委统战部组织召开增强“三个意识”践行“四条标准”铸牢中华民族共同体意识暨爱国主义国情教育总结研讨会。市委常委、统战部部长，市政协党组副书记达瓦出席并讲话，市委统战部副部长、三级调研员格桑次仁主持会议。', '会议指出，通过此次考察学习，让广大宗教界代表人士更深层次解放了思想，转变了观念，增强了素质，进一步坚定了感党恩、听党话、跟党走的信心和决心。希望宗教界代表人士，继续发挥好带头作用，用自身切实感受和学习体会，激励广大僧尼发扬爱国爱教报国利民优良传统，积极引导藏传佛教与社会主义社会相适应，增强对伟大祖国、中华民族、中华文化、中国共产党、中国特色社会主义认同，铸牢中华民族共同体意识，争做爱党爱国爱社会主义、坚决维护祖国统一和民族团结的模范，争做践行社会主义核心价值观、弘扬中华优秀传统文化的模范，争做尊法学法守法用法、坚决维护社会和谐稳定模范。在宗教界“三个意识”教育中，广大宗教界代表人士要以身作则，率先垂范，以考察学习的实际成效巩固和拓展“三个意识”教育成果，努力做到学以致用、学以促用。']</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>西藏省</t>
-        </is>
+      <c r="A25" t="n">
+        <v>262</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>林芝市</t>
+          <t>西藏省</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
+          <t>林芝市</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
           <t>粤林一家情牵山海林芝市开展对口援藏周年回访调研工作</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>2024-05-27</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>http://www.linzhi.gov.cn/linzhi/xwzx/202405/86538800e1a4487b90ad7a41bbdcbd61.shtml</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>['30周年之际，林芝市委常委、组织部部长李选印率队于5月12至21日赴广东开展回访。7县（区、市）委组织部部长参加对口支援市回访相关活动。', '期间，回访组一行先后前往广东省委组织部、省教育厅、省卫健委和东莞、惠州、深圳、珠海、中山、佛山、广州等对口支援市实地考察学习、进行座谈交流，代表林芝市委、市政府和全市各族干部群众，表达感谢之情，对接支援需求、加强沟通合作、共谋改革开放新篇。', '在东莞市规划展览馆、广州市城市规划展览中心、白云区罗冲围等考察学习城乡规划建设；在松山湖国际创新创业社区、惠州市祝屋巷文创街区、深圳市党群服务中心等地调研基层治理、人才平台载体建设和“两新”党建；在松山湖国际创新创业社区、狮山镇招大社区调研了“一抓两促”工作情况；在中国散裂中子源、香港城市大学（东莞校区）、中南农业科技有限公司等地，学习先进技术和借鉴先进经验。每到一处回访组成员都认真听取介绍、积极主动对接，深入细致交流。', '回访期间，李选印亲切看望了林芝藉高校毕业生就业学生代表和中山市西藏班学生，听取他们在广东学习、工作、生活情况，勉励学生热爱党、热爱祖国，珍惜学习机会，考入理想大学，为国家建设贡献力量。勉励在粤就业高校毕业生珍惜宝贵就业机会，持续提升能力水平，展现人生价值。', '李选印还与选派“工布英才”和挂职跟岗干部进行了座谈交流，了解大家需要帮助解决的困难问题，希望大家珍惜来之不易的机会，主动融入，结合自身所需、加快充电提能，强化交往交流交融、当好桥梁纽带，严于律己、树立良好形象。']</t>
         </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>西藏省</t>
-        </is>
+      <c r="A26" t="n">
+        <v>262</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>林芝市</t>
+          <t>西藏省</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
+          <t>林芝市</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
           <t>拉萨市委统战部组织党外代表人士赴林芝市开展凝心铸魂强根基团结奋进新征程主题教育暨区情考察</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>2023-11-29</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>http://www.linzhi.gov.cn/linzhi/xwzx/202311/e59578b9e7fc449f909c9cae41c1b2a1.shtml</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>['拉萨市委统战部组织党外代表人士赴林芝市开展“凝心铸魂强根基 团结奋进新征程”主题教育暨区情考察', '11月23日至24日，拉萨市委统战部组织党外知识分子、新的社会阶层人士、民营经济代表人士组成考察学习团，赴林芝市开展“凝心铸魂强根基·团结奋进新征程”主题教育暨区情考察活动。', '在为期2天的考察活动中，考察组先后前往林芝市经开区粤林产业园、藏东南文化遗产博物馆、嘎拉村“团结颂”展馆、林芝市福建商会以及奇正藏药集团进行参观考察。']</t>
         </is>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>西藏省</t>
-        </is>
+      <c r="A27" t="n">
+        <v>262</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>林芝市</t>
+          <t>西藏省</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
+          <t>林芝市</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
           <t>林芝市人民政府办公室关于切实做好道路运输体制改革工作有关事宜的通知</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>2016-06-03</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>http://www.linzhi.gov.cn/linzhi/zwgk/201606/8d85274f38a74632ad71b6bf5f18497b.shtml</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>['为贯彻落实全区道路运输体制改革专题会议精神，根据《西藏自治区人民政府关于印发西藏自治区道路运输体制改革实施方案的通知》（〔2015〕111号）相关要求，进一步明确目标，落实责任，有序推进我市道路运输体制改革各项工作，现就有关事宜通知如下：', '道路运输体制改革工作实施以来，市委、市政府高度重视，紧紧围绕改革总体要求，提前谋划，精心部署，主要领导统筹部署，分管领导亲抓落实，行业部门拟定举措，有序推动了我市道路运输体制改革的稳步开展。', '成立了以市委副书记、市长旺堆同志为组长的林芝市道路运输体制改革领导小组，领导小组办公室设在市交通运输局，杨赤卫同志兼任办公室主任，领导小组下设机构编制组、客运车辆及行业治理组、社会稳控组等。', '结合我市实际，在借鉴拉萨市经验做法的基础上，经过充分调研、数据分析和认真研究，拟定了《林芝市道路运输体制改革实施方案（征求意见稿）》及《林芝市班线客运车辆及行业治理安置政策（征求意见稿）》，并多次进行了修改完善和细化。', '对所有班线、旅游客运车辆进行了详细统计和数据分析，最终明确了改革对象。此次改革的主要任务是清理挂靠公司的247台班线客运车辆，旅游客运挂靠车辆仅7台，且已满车辆最大经营年限（8年）报停。', '根据市政府安排，由市道路运输体制改革领导小组办公室组织相关人员前往拉萨、山南等地考察学习道路运输体制改革经验做法，探讨交流改革中存在的共性、个性疑难问题及相关政策执行标准，相互交流意见建议。并于4月前往米林县、朗县、工布江达县、波密县、察隅县等5个县就体制改革期间专班成立、政策宣传等情况进行前期调研，传达区、市有关改革期间维护稳定等相关精神，提前部署改革相关任务，听取改革期间县级机构编制、职能职责、清理挂靠的意见建议。', '市道路运输体制改革领导小组办公室结合考察、调研实际，认真梳理汇总出以下六个方面的具体问题：', '市道路运输体制改革领导小组办公室要加强对各县（区）改革相关工作的指导，明确任务分工，切实做到上下联动，统一指挥。', '严格按照“先旅游、后班线、再出租”的总体原则，统筹全局，积极稳步推进改革任务。旅游客运方面，加强旅游挂靠车辆报废和新旧车辆置换工作；班线客运方面，按照市政府部署，再次细化清理挂靠实施细则，拟定筹资贷款等有关细则，待自治区班线客运车辆退市标准审定后实施。', '进一步对林芝市客运公司、江南运业有限公司企业资产、员工结构等相关事项进行摸底调研，为市政府决策参考提供了基础资料。', '认真拟定机构编制、职责方案，参照自治区运管局机构编制、职能职责基本情况，结合我市实际，初步拟定了林芝市道路运输管理局（地方海事局）机构编制、职能职责方案，目前正在与市编办积极沟通协调，之后将按程序上报区编办审定。健全公安交管机构编制方案也正在进一步审核中。', '一是要扎实推进清理挂靠工作进度。严格按照全区道路运输体制改革总体方案，借鉴拉萨市班线、旅游客运车辆清理挂靠实施细则，明确车辆退市标准，再次细化我市清理挂靠实施细则，待全区车辆退市标准明确后，指导客运公司、江南运业公司认真开展车辆残值测算，做好政策宣传，同时督导班线客运企业、旅游客运企业做好29座以上客运车辆（班线66辆、旅游48辆）退市、置换高原新型客车相关工作，全面清理挂靠，推行公司化运营；二是积极沟通区运管局、市编办，借鉴其他地市机构设置情况，认真拟定我市运管机构升格后内设科室设置及人员编制情况，确保设置的科室科学合理；三是积极沟通衔接自治区交通运输厅，配合做好《西藏自治区道路旅客运输客运经营权招投标管理办法》、《西藏自治区道路旅客运输驾驶员从业人员管理办法》和《道路运输车辆卫星定位系统企业监控平台备案管理办法》等一系列办法、规定和措施的制定出台工作；四是协助配合交通运输厅加快动态监控平台升级改造，提前做好政府管行业、行业管企业、企业管车辆的三级体系建设前期筹备工作；五是加快推进企业安全生产标准化建设。将安全生产标准化建设纳入2016年安全生产重点工作，积极督促企业与自治区确定的安全生产标准化二级、三级考评机构沟通协商，力争今年全面完成我市重点客运企业、危险货物运输等企业的安全生产标准化建设；六是全面推广高原新型客车。严格按照《青藏高原营运客车技术要求》（JT/T963-2015）行业标准，严格我市营运车辆技术准入；七是加快推进农村客运发展，积极开展全市农村客运现状调研，严格按照自治区交通运输厅即将修订下发的《西藏自治区人民政府关于扶持农村客运发展意见》，统筹做好全市农村客运发展；八是强化公路安保工程建设。积极争取国家、自治区专项资金，加大我市公路安保工程建设力度，大力推进安全警示、限载标牌安保工程建设；九是狠抓安全生产工作。认真履行行业监管责任，切实督促企业严格落实安全生产主体责任，建立健全安全生产管理体系，积极推动安全管理制度化；十是积极沟通财政部门，认真做好省市际、县际“两限一警”补助资金申请审核工作，确保补助资金按时足额兑现。', '一是积极与区公安厅、市编办等部门沟通，配合做好高速（高等级）公路交巡警工布江达县、巴宜区大队设立工作；二是加强公交安保工作，按照属地管理原则，积极协调市组织人事部门，做好我市公交安全保卫大队的组建工作，落实好机构、编制；三是强化道路管控技防能力，积极协助配合公安厅，做好我市境内国省道智能卡口建设工作；四是加强农村道路安全监管，积极配合公安厅，做好我市农村乡镇派出所和公安检查站积极参与交通安全管理相关工作，建立健全农村交通安全监管机制；五是积极配合公安厅，做好全区不同等级公路限速管理办法。', '积极沟通区编办，尽快升格市运管机构，理顺运政执法权责，健全公安交管机构，做好我市公交安全保卫大队组建工作，同时统筹做好各县（区）运管机构设立工作，尽快落实编制和人员。', '一是严格按照“两限一警”补助有关标准，积极与区财政厅沟通衔接，做好省市际客运车辆补助资金的清算和拨付工作，同时，严格按照年初预算，尽快按程序拨付我市县际客运车辆补助资金，确保补助资金足额及时兑现；二是协助市编办、交通、公安及各县（区）人民政府，做好机构健全后各相关单位的经费调整、财务划转等事宜。', '一是积极配合交通、运管等部门，做好我市29座以上48辆旅游客运车辆退市、置换高原新型客车等相关工作；二是结合我市旅游业发展现状和趋势，借鉴内地先进经验，协调沟通市发改等部门，加快推进我市旅游客运服务中心建立工作，提前做好相关规划，实现旅游车辆统一调度、统一管理、统一结算、统一受理服务投诉等。', '积极沟通协调区安委会，积极配合市交通运输局，做好我市企业安全生产标准化建设，建立健全我市道路运输服务质量和安全生产考核评价体系。', '扎实做好我市国有班线客运企业、旅游客运企业客运车辆国有资产核销工作，确保新旧车辆置换工作顺利进行。', '一是积极协调市编办，尽快健全县级运管机构，落实编制和人员；二是积极做好改革任务衔接，配合做好本县（区）司乘人员思想教育和政策宣传，及时掌握司乘人员思想动态，提早排查化解矛盾纠纷，防止出现群体性上访事件；', '4月26日，我市召开道路运输体制改革推进会议，结合当前工作实际，对下一步工作进行安排部署，并提出明确要求：', '各相关单位要对此次改革工作高度重视，切实统一思想，强化组织领导，确保改革任务顺利完成。区、市人民政府均成立了道路运输体制改革领导小组，各相关单位也要在本单位成立领导小组，主要领导要亲自抓改革相关工作，市改革领导小组办公室要督促指导各县（区）人民政府及时成立领导小组，统筹做好改革相关工作。', '对于自治区层面统筹实施的改革任务，市直各相关单位要积极衔接沟通，把握政策标准，认真配合自治区相关单位做好政策标准、管理办法制定出台工作。对于地市层面统筹实施的改革任务，牵头单位要尽快制定工作计划，细化工作措施，特别是清理挂靠、建立游客服务中心、健全县级运管机构等由地市具体负责的改革重点工作，相关单位一定要加快推进，力争按规定时限顺利完成改革工作。', '此次改革任务重，工作量大，涉及的部门多，各相关部门要加强沟通协调，通力配合，形成合力，全面推进道路运输体制改革工作任务。针对改革中出现的新情况、新问题，市改革领导小组办公室要及时向自治区改革办、交通运输厅等部门衔接沟通，严格政策导向，把握尺度标准，及时解决难点问题。', '要高度重视改革期间的道路运输行业安全生产工作，严格按照区、市安全生产有关要求，履行好行业监管职责，切实做到监督检查力度不减、标准不低，不能因为改革而放松了安全生产。道路运输行业部门要严格督促企业落实安全生产主体责任，加强安全生产督导检查，加快企业安全生产标准化建设；公安部门要积极配合自治区公安厅，加快技术监控手段智能卡口等建设步伐，改革期间，要严格“两限一警”政策措施；交通部门要加快实施公路安保工程，减少道路安全隐患。', '要做好道路运输行业矛盾纠纷排查，加强政策宣传引导，关注重点群体，及时化解矛盾纠纷，防止出现群体性上访事件。要加强运力调配，避免出现旅客滞留，做好经营期限到期车辆车主的思想教育，防止矛盾激化。', '体制改革工作结束后，下一步农村客运发展、出租车市场规范将成为我市道路运输领域的重点工作，行业部门要提前做好相关工作，制定实施方案，细化工作措施，确保工作有序推进。', '制定《西藏自治区公安厅关于推进全区农村乡镇派出所和公安检查站积极参与交通安全管理工作的指导意见》', '备注：林芝市道路运输体制改革重点工作分工表参照自治区分工表及西藏自治区人民政府《关于印发〈西藏自治区道路运输体制改革方案〉的通知》（藏政发〔2015〕111号）文件精神，表中大部分工作属自治区层面工作任务，地（市）主要做好配合及衔接工作。']</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>西藏省</t>
-        </is>
+      <c r="A28" t="n">
+        <v>262</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>林芝市</t>
+          <t>西藏省</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
+          <t>林芝市</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
           <t>林芝地区行署办公室关于印发林芝地区年招商引资工作实施方案的通知</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>2012-05-29</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>http://www.linzhi.gov.cn/linzhi/zwgk/201205/9771e0b3e24d4fbda9e8c65e0087ec32.shtml</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>['为认真贯彻落实地区工作会议精神，扎实抓好2012年全地区招商工作，切实改善投资发展环境，确保完成28亿元招商引资（民间投资）目标任务，特制定本方案：', '以科学发展观为指导，以改善投资环境为重点，以重大招商活动为平台，以开放型经济发展目标为动力，牢固树立科学招商理念，把质量效益摆在突出位置，突出园区招商引资，不断创新招商方式，强化服务意识，实现大招商、招大商的工作目标。', '努力实现新签项目履约率超过20%，新建项目资金到位率超过30%，续建项目资金到位率超过50%的目标。', '继续加强与对口援藏省市的交流与合作，重点加强与四川、重庆、江苏、浙江等省市工商界的联系，加大与国内知名企业的交流合作力度，努力形成多层次、多领域、多形式、多元化的对外开放和招商引资新格局。', '依托我地区特有的农、茶、畜、果、林下产品等优势资源，围绕以发展绿色无公害蔬菜、茶叶、核桃、花生、水果、野山珍、畜禽等绿色食品深加工和生物农业、生物制造开展招商，大力兴办高新技术产业、新型产业和优势产业。', '坚持传统与现代结合，科研与企业联手，藏医和藏药并举，促进产业升级。利用藏药材资源优势，一是引进有实力的企业落户林芝，鼓励企业培育药材种植基地，采取“公司+基地+农户”的模式，扩大藏药材种植面积，多措并举保障藏药材有效供给。二是积极引进有信誉的大型知名医药企业落户林芝，凭借其成熟的技术力量、完善的销售网络，进行医药产品、保健产品研发、生产、销售，进一步开拓医药领域高端市场。逐步把林芝的藏药业培育成为支柱产业。', '以生态旅游为重点，积极开发休闲游、红色游、民俗游，依托雅鲁藏布大峡谷旅游品牌效应，以现有景点建设为重点，挖掘下游产品配套项目，鼓励外来投资者对我地区丰富的旅游资源进行深度开发，借力实现林芝旅游的突破发展。', '为目标，鼓励外来投资者参与我地区商场超市、现代物流、宾馆、餐饮、娱乐、IT等商贸、高新技术领域开发，投资兴办教育、文化、卫生、体育等社会事业，不断增强城市综合服务功能，提升第三产业的层次和水平。', '利用各类新闻媒体及各级政府网站广泛宣传林芝招商引资优惠政策，展示招商企业风采，包装推介一批重点招商项目，通报招商引资工作进度和招商项目进展情况。在车站、宾馆摆放招商引资宣传资料，兴建招商引资文化长廊，设置招商宣传广告牌，增强宣传效果，营造招商氛围，进一步形成全民招商的共识。', '一是重点组织各县及相关企业参加由自治区组织的渝洽会、厦交会、西博会、香港投资经贸洽谈会等4项“走出去”招商活动。二是提前做好第十届林芝地区投资贸易洽谈会（简称“林洽会”）的对外宣传推介工作，力争将林洽会办成有区域影响力的盛会，使请进来招商活动取得更大成效。三是鼓励各县、各单位开展形式多样的招商活动。', '成立林芝地区2012年招商引资工作方案实施小组。由地委副书记、行署常务副专员阮军任组长、行署副专员红卫任副组长，成员由地区商务局、国资委、七县人民政府主要领导组成，具体负责全年招商引资目标任务的落实。', '实现新突破。通过加强对已经落户林芝企业的服务，帮助企业做大做强，吸引其扩大投资并带动其上、下游产品的企业来林芝投资，延伸产业链，壮大产业规模，深度挖掘现有客商背后的市场网络和客商群体，达到以商招商的良好效益。二是积极开展', '工作，发挥各级政府网站作用，加强招商网站平台建设。三是大力开展援藏招商。借助广东、福建援藏平台，广聚干部人脉资源，把沿海的客商和民间资本请进来；有针对性的开展援藏招商，利用好每一次援藏干部引荐投资商的机会，将招商基础工作做扎实，力争更多资金、技术和人才参与林芝的建设和发展。四是发挥政协经济界人士和工商联的作用，不定期的召开经济界政协委员恳谈会及投资企业座谈会，向企业家介绍林芝的投资政策，请他们介绍更多的客商来林芝投资，并广泛征求招商引资工作的意见和建议。五是适时组织点对点招商活动。对投资意向明确、条件成熟、正在跟踪的重点项目，由行署领导带队，成立项目推进领导小组，多次接触，及时跟进，积极洽谈，加温促成。六是积极探索', '的思路，推动园区建设快速发展，强化园区职能，明晰产业定位，真正把园区建设成为新的经济增长点。一是抓紧做好布久新区工业园的规划及征地审批工作，加快园区“五通一平”基础设施建设，减少项目审批环节，确保2011年已签订的入园项目尽快落地。二是探索工业园整体招商模式，由投资商参与园区的建设和招商，有效解决园区建设过程中资金不足的问题，充分调动投资商参与园区建设的积极性。', '以产业链为立足点，大力推进产业链招商。按照大项目—产业链—产业群—产业基地的思路，引进相关配套产业，拉长产业链，形成产业集聚，提高产业发展水平。各县要结合产业优势将1-2个加工型项目放入园区内建设，力争在短期内形成聚集辐射效应。', '一是充实招商力量。地区及各县政府要进一步明确和强化招商工作，选调懂经济、知法律、目光敏锐、亲和力强的工作人员充实到招商队伍中；各级商务部门作为项目洽谈队伍的主体，要有选择地走访拜会知名企业，承接经济发达地区产业转移企业，力争全面超额完成年度招商引资目标任务。二是建设项目策划队伍，地区招商责任单位及各县政府成立项目策划包装工作小组，做好项目策划包装，储备一批市场前景好，符合林芝经济社会发展和产业特点，可操作性强的项目；对我地区现有的推介宣传项目，进一步加强综合论证，完善前期基础工作，优化推介宣传方案，增强项目对接的可操作性；对客商自带项目，结合我地区产业发展规划，找准产业结合点，促使外来项目尽快落地。三是抓好项目服务。严格推行首问负责、服务承诺、责任追究和重大投资项目跟踪服务等制度，促进重大项目尽快落户。', '加强对招商干部的业务知识培训，采取邀请区内外专家以授课的方式开展短期培训和组织招商人员到区内外经济发达地区考察学习，使招商干部成为全面熟悉我地区区情、产业结构、发展方向、投资要素和园区特点，掌握项目洽谈流程，综合业务水平较高的专业人员，全面提升招商引资工作水平。', '做好项目论证，扎实做好项目建议书、可研性报告、初步设计、评估分析等要件，努力提升项目的科学性、针对性和可操作性；做好项目包装，突出市场需求，对项目的名称、内容、回报、前景等进行详细论证，吸引客商的眼球。做好项目推介，广泛运用各种渠道，多媒体发布、多节会推介，提高项目招商的成功率。掌握企业动向，摸清投资意向，策划、包装项目，为全地区提供有价值的研究成果和招商信息。', '利用外出招商洽谈、组织工商联谊会、通过互联网搜索等方式收集整理投资者信息、投资意向信息，进行整理归纳，及时推荐给我地区的相关企业或单位进行对接。', '对引进的各类招商项目建立完善的备案登记制度，并将项目备案登记制度作为招商引资工作年度目标考核重要认定依据。', '包抓责任制，对招商项目提供全程服务，简化办事程序，加快建设进度，不断创造亲商、安商、富商环境。', '每名招商干部联系2-3个招商引资企业，每季度到企业做一次考察，解决一个实际问题，写一篇工作简报，为地委、行署落实招商引资政策和科学决策提供第一手依据。', '对新引进企业实行一个项目一个考察团考察会审，防止高污染、高能耗和虚假企业入驻林芝。', '一是实行招商引资项目引进单位和主管部门负责制，切实做好项目的全程服务工作；完善各级招商引资工作领导小组工作制度，每季度召开一次招商引资领导小组成员会议，通报上季度招商引资工作情况，研究解决招商引资工作中存在的困难和问题；二是建立招商工作进展督查制度，确保项目顺利实施；三是推行便利化服务，促成项目落地，努力创建政策透明、依法行政、简化便利、高效服务的投资环境，提高行政效率和服务水平，提升引资竞争力。认真抓好在谈在建项目的跟踪服务工作，积极帮助投资商解决项目建设过程中遇到的困难和问题，推动项目尽快落地。有目标、有安排地锁定对象跟踪服务，逐一落实到位资金，促成有意向项目落地，为全面完成2012年招商引资责任目标提供支撑。', '一是落实西藏自治区党委、政府关于优化投资发展软环境的意见，开展投资环境宣传活动。加强对行政许可、行政执法、机关效能建设以及各项优化经济发展环境措施落实情况的监督检查，严肃查处不作为、缓作为、乱作为的行为。全力抓好招商政策、服务质量等软环境建设，设立客商投诉服务中心，为企业生产经营创造良好环境。二是部门联动抓招商。充分发挥地区招商引资工作领导小组的统筹联动作用，加强对招商引资工作的宏观指导和协调服务；各县党政主要领导要把对外开放和招商引资工作放在更加突出的位置，常抓不懈，带头外出招商，确保精力投放到位，干部配备到位，任务落实到位。全地区上下要充分发挥各自职能，为大招商营造更加宽松的内外环境，充分调动方方面面的积极性，形成招商引资的大合唱，在全地区掀起新一轮对外开放、招商引资的热潮。三是进一步健全完善各部门政务大厅功能，减少办事环节，提高办事效率，建立服务企业、便民为民的', '。 四是对已经开工建设的项目，要加大协调力度，加快工程进度。对正在办理前期手续的项目，要有专人协助客商办理手续，推动项目尽快进入建设阶段。对协议、意向项目要进一步洽谈推进，力争签约落户。', '、把招商引资完成情况纳入单位年度考核内容，严格兑现落实《林芝地区招商引资综合考评及奖励办法》，确保招商引资各项任务全面落到实处。', '逐步形成全方位抓开放，全社会抓招商，全过程抓服务，全身心抓落实的招商氛围，根据全地区招商引资目标任务，结合我地区实际，特制订本办法。', '（1）招商引资实际到位资金。主要考核各县、地直招商责任单位完成地委、行署下达的全年招商引资目标任务情况，年度缴纳税收、解决就业情况。', '（2）招商引资项目库的建设情况。主要考核当年新推招商项目数；项目库建设和项目资料建档情况。', '（3）招商引资活动开展情况。主要考核各县、地直招商责任单位组织、参加招商引资活动及外出主动招商情况；招商宣传工作开展情况等。', '（4）招商引资项目跟踪落实情况。主要考核续建项目资金到位率、新建项目资金到位率和新签约项目履约率情况。', '（5）组织领导、统计报表情况。主要考核各县、地直招商责任单位招商引资组织领导及报送材料情况；招商报表统计情况；招商经费安排到位情况。', '（2）年度实际到位资金以上报的报表和考核小组考核结果为准，完成年度目标任务100%得基本分70分，超额完成年度目标任务的，按超额比例加分，每超额10%，加1分，加分不超过10分；未完成年度目标任务的，依据基本分，按完成比例得分。', '完成当年新推项目任务得基本分2分，每超额1个项目，加0.5分，加分不超过基本分。未完成新推项目任务，每少1个项目，扣0.5分，扣分不封顶；②项目库建档资料齐全，得到充分利用的，得基本分2分，主要依据查看资料情况（有专人负责管理得0.5分、有宣传资料得0.5分、有电子档案得0.5分、有网上发布记录得0.5分）进行分级评定。', '每参加1次自治区组织的招商活动，得0.8分，全年主要参加3次活动（“渝洽会”、“西博会”、“厦交会”），基本分2.4分。②组织参加地区“林洽会”成效明显的，得基本分0.8分，主要依据组织领导、布展、撤展进行分级评定，不同等级得分分别为0.8分、0.5分、0.2分。③自行组织和参加招商活动每年不少于1次，得基本分0.8分。每多组织1次加0.4分，加分不超过基本分。未自行组织和参加招商活动不得分。', '（6）组织领导、统计报表工作得力，得基本分12分。①主要领导亲自抓、分管领导具体抓招商引资工作，有相关正式文件的，得基本分1分；②招商组织机构和招商引资制度健全、招商项目协调会（有相关材料）开展2次及以上，得基本分1分；', '全年主动报送12次以上招商引资书面材料得基本分3分；每多报1次加0.5分，加分不超过基本分。每少报1次扣0.5分，扣分不封顶；④招商月报表统计及时、完整、真实，以地区招商办记录评价情况为考核依据，符合要求得基本分5分。报表填写内容不全、报送不及时或退回，填报不真实、数字之间逻辑关系存在明显错误的，每出现1次扣0.5分，扣分不超过基本分；⑤安排招商引资专项经费得基本分2分，未安排不得分。', '（7）加分事项，主要依据招商项目缴纳税收和解决就业情况进行考评。缴纳税收需提供税务部门开具的企业完税凭证复印件或纳税证明；解决就业需企业与员工签订的劳动合同及劳动和社会保障部门开具的社会保险金缴纳凭证复印件。招商部门和企业对所提供材料的真实性负责。①招商企业年缴纳各类税收总额达到或超过200万元，企业当年新吸纳20名以上西藏户籍员工，并和员工签订两年以上（含两年，下同）劳动合同，同时按照国家规定为员工缴齐社会保险，全年无工伤责任事故的，加6分，其中缴纳税收和解决就业各占3分，符合哪个标准，得相应分值。全年发生工伤责任事故的，不得分；②招商企业年缴纳各类税收总额达到或超过100万元，企业当年新吸纳10名以上西藏户籍员工，并和员工签订两年以上（含两年，下同）劳动合同，同时按照国家规定为员工缴齐社会保险，全年无工伤责任事故的，加4分，其中缴纳税收和解决就业各占2分，符合哪个标准，得相应分值。全年发生工伤责任事故的，不得分；③招商企业年缴纳各类税收总额达到或超过50万元，企业当年新吸纳5名以上西藏户籍员工，并和员工签订两年以上（含两年，下同）劳动合同，同时按照国家规定为员工缴齐社会保险，全年无工伤责任事故的，加2分，其中缴纳税收和解决就业各占1分，符合哪个标准，得相应分值。全年发生工伤责任事故的，不得分。', '全程服务单位由考评领导小组采取民主测评和实地调查相结合的方式，对其满意度进行考评，总分值为100分。其中考评领导小组实地调查所占分值为40分，各县民主测评所占分值为30分，招商企业民主测评所占分值为30分。', '测评全程服务单位公开宣传各行业优惠政策情况，了解各县对政策的知晓程度。由各县根据实际情况提出书面意见，并进行打分，基本分6分。', '测评全程服务单位公开办事程序情况，了解各县对程序的知晓程度。由各县根据实际情况提出书面意见，并进行打分，基本分6分。', '③测评全程服务单位工作效率。由各县根据实际情况提出书面意见，并进行打分，基本分6分。', '④测评全程服务单位有无推诿扯皮、吃拿卡要现象。由各县根据实际情况提出书面意见，并进行打分，基本分6分。', '⑤测评全程服务单位服务态度和服务意识。由各县根据实际情况提出书面意见，并进行打分，基本分6分。', '测评全程服务单位公开宣传各行业优惠政策情况，了解各相关企业对政策的知晓程度。由各相关企业根据实际情况提出书面意见，并进行打分，基本分5分。', '测评全程服务单位公开办事程序情况，了解各相关企业对程序的知晓程度。由各相关企业根据实际情况提出书面意见，并进行打分，基本分5分。', '③测评全程服务单位工作效率。由各相关企业根据实际情况提出书面意见，并进行打分，基本分5分。', '④测评全程服务单位有无推诿扯皮、吃拿卡要现象。由各相关企业根据实际情况提出书面意见，并进行打分，基本分5分。', '⑤测评全程服务单位服务态度和服务意识。由各相关企业根据实际情况提出书面意见，并进行打分，基本分5分。', '⑥测评全程服务单位帮助投资客商解决实际困难和问题情况。由各相关企业根据实际情况提出书面意见，并进行打分，基本分5分。', '（4）全程服务成员单位综合考评分值达到80分以上的，均评为全程服务满意单位。综合考评分值达到90分以上的，评为全程服务优质单位。', '、坚持客观、公正、公平的原则，坚持数量与质量相结合、重在质量的考评原则，坚持全面考核、突出重点的原则，统一标准、统一尺度、统一要求，实行季度考评、年终综合考评的办法对全地区招商引资情况进行考核。', '①项目情况简介；②项目投资协议复印件；③企业工商注册登记证（复印件）；④税务登记证（复印件）；⑤投资人身份证明，包括投资企业法人资格证书或营业执照、自然人投资项目法人身份证复印件以及其他能够证明投资人身份的资料。', '、考评项目资金确认。招商项目的到位资金中现金投入以银行进账单、会计报表记录为准；企业书面报送的项目到位资金证明（必备，每季度一份）；投资企业与施工企业签订的相关合同及能反映投资企业支出的有效发票等；无形资产投入应有相关部门提供的证明材料；以收购、兼并方式投入的，按产权转移后新投入的建设费用计算；以租赁方式投入的，按租赁期间的租金和新投入的建设费用计算。企业流动资金、贸易往来、争取上级资金不列入招商引资统计考核范围。', '引进方与协同方共商分享比例，并由双方签章确认。第一引资单位所占份额不低于资金总额的60%，分享的项目作为单位的年度考核任务。', '、材料收集。各县招商引资日常工作中应做好引进项目的材料收集整理工作，确保规范、完整。引进项目材料包括：招商引资项目统计表、合同复印件、进资证明（验资报告）复印件、营业执照复印件、分享协议或项目确认书、投资证明等。缴纳税收和解决就业证明材料包括：', '税务部门开具的企业完税凭证复印件或纳税证明；企业与员工签订的劳动合同及劳动和社会保障部门开具的社会保险金缴纳凭证复印件。', '、自验自查。各县、地直招商责任单位年终时对各自引进的招商项目先行验收和审查，填写《林芝地区招商引资考核项目汇总表》，加盖本单位公章后上报地区招商引资办。上报截止时间为每年11月20日。', '考评领导小组将采取听、看、实地调查和检查单据相结合的方法，认真查验进资凭证等材料，对考评内容逐个审核，对民主测评情况进行详细的汇总。', '建立林芝地区招商引资奖励基金。由地区财政设立招商引资奖励专项资金，专项资金主要用于', '对完成招商引资目标任务且招商引资综合考评前三名的县及招商引资责任单位，分别给予颁发10万、8万、6万元的一次性奖金，奖金可用作招商业务经费支出及对招商工作人员的奖励。', '全程服务单位由招商考评小组实地调查、各县民主测评和企业民主测评综合考评，总分达到90分以上的前三名服务单位，', '在招商引资工作中，有推诿扯皮、吃拿卡要、刁难投资者、不执行优惠政策等损害林芝地区招商引资形象和声誉行为的，经组织查证，情况属实的，取消单位当年评先、评优资格，并给予通报批评。']</t>
         </is>
